--- a/data/index/corpus_a_index_clean_atu.xlsx
+++ b/data/index/corpus_a_index_clean_atu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenia/Desktop/thesis/magic_tagger/data/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18634B08-537C-7747-991D-AAAAD59C2D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F68462-6215-E945-B68E-4B1A73304900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="1280" windowWidth="29560" windowHeight="18360" xr2:uid="{2FED5107-BDBA-42C2-8B25-B9C3018C5C1C}"/>
   </bookViews>
@@ -412,9 +412,6 @@
     <t>legendiline muinasjutt</t>
   </si>
   <si>
-    <t>SUS 677***</t>
-  </si>
-  <si>
     <t>ERA, Vene 6, 406/20</t>
   </si>
   <si>
@@ -2124,6 +2121,9 @@
     <t>Былица про Беса. [Бес разбивает деду руку о столб у кладбища. Дед ловит беса в рукомойник, одевает на беса крест. Дед идёт в церковь - бес рядом, народ его не видит.
 Дед и бес ходят в кабак вино пить. Бес требует работу. Камни с берега ворочить не может. Дед посылает с песка цепь свить - не получается; ладью перевернуть на берегу.
 Поехали ловить рыбу, бес советует, где лучше лов. Бес работает на деда три года, просит отпустить. Дед снимает крест, бес пропадает. Поп отчитывает проклятье, чтобы беса никто больше не видел.]</t>
+  </si>
+  <si>
+    <t>677***</t>
   </si>
 </sst>
 </file>
@@ -3263,11 +3263,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84DAE8B-405E-4655-89DF-BEE99C6D5E84}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomLeft" activeCell="AA118" sqref="AA118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3305,120 +3306,120 @@
   <sheetData>
     <row r="1" spans="1:36" s="6" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="U1" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD1" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="AE1" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="AF1" s="24" t="s">
+        <v>636</v>
+      </c>
+      <c r="AG1" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="AH1" s="24" t="s">
+        <v>639</v>
+      </c>
+      <c r="AI1" s="24" t="s">
+        <v>638</v>
+      </c>
+      <c r="AJ1" s="24" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="AC1" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="AD1" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="AE1" s="26" t="s">
-        <v>434</v>
-      </c>
-      <c r="AF1" s="24" t="s">
-        <v>637</v>
-      </c>
-      <c r="AG1" s="24" t="s">
-        <v>638</v>
-      </c>
-      <c r="AH1" s="24" t="s">
-        <v>640</v>
-      </c>
-      <c r="AI1" s="24" t="s">
-        <v>639</v>
-      </c>
-      <c r="AJ1" s="24" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -3427,10 +3428,10 @@
         <v>42</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>41</v>
@@ -3474,27 +3475,27 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH2" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI2" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="AJ2" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
@@ -3503,10 +3504,10 @@
         <v>72</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
@@ -3548,27 +3549,27 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH3" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI3" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI3" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="AJ3" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="144" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C4" s="1">
         <v>6</v>
@@ -3577,10 +3578,10 @@
         <v>111</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>103</v>
@@ -3624,55 +3625,55 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH4" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI4" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI4" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="AJ4" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C5" s="1">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -3682,13 +3683,13 @@
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1" t="s">
@@ -3702,45 +3703,45 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH5" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI5" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI5" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="AJ5" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="192" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G6" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -3755,14 +3756,14 @@
         <v>34</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R6" s="1">
         <v>1949</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>1</v>
@@ -3780,48 +3781,48 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH6" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI6" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI6" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="AJ6" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="350" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" ht="350" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C7" s="1">
         <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="I7" s="15" t="s">
         <v>614</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>615</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -3831,7 +3832,7 @@
         <v>63</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -3840,7 +3841,7 @@
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>1</v>
@@ -3858,48 +3859,48 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH7" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI7" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI7" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="AJ7" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C8" s="1">
         <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -3909,7 +3910,7 @@
         <v>63</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -3918,7 +3919,7 @@
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>1</v>
@@ -3936,54 +3937,54 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH8" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI8" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI8" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="AJ8" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C9" s="1">
         <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>571</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>573</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>572</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -3991,7 +3992,7 @@
         <v>63</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -4000,7 +4001,7 @@
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>1</v>
@@ -4018,45 +4019,45 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH9" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI9" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI9" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="AJ9" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="176" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C10" s="1">
         <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -4067,7 +4068,7 @@
         <v>63</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -4076,7 +4077,7 @@
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>1</v>
@@ -4094,27 +4095,27 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH10" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI10" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI10" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="AJ10" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="112" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -4123,10 +4124,10 @@
         <v>25</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>22</v>
@@ -4172,27 +4173,27 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH11" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI11" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI11" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="AJ11" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="80" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -4201,10 +4202,10 @@
         <v>58</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>54</v>
@@ -4248,75 +4249,75 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH12" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI12" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI12" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="AJ12" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C13" s="1">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
         <v>63</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R13" s="9">
         <v>13121</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1" t="s">
@@ -4330,45 +4331,45 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH13" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI13" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI13" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="AJ13" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="176" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G14" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -4379,13 +4380,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R14" s="9">
         <v>17724</v>
@@ -4394,7 +4395,7 @@
         <v>17727</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>1</v>
@@ -4412,64 +4413,64 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH14" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI14" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI14" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="AJ14" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C15" s="1">
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H15" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="J15" s="15" t="s">
         <v>606</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="K15" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="L15" s="15" t="s">
         <v>608</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>609</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
         <v>63</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -4480,7 +4481,7 @@
         <v>23204</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>1</v>
@@ -4498,48 +4499,48 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH15" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI15" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI15" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="AJ15" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="320" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" ht="320" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H16" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>588</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>589</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -4549,7 +4550,7 @@
         <v>63</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -4560,7 +4561,7 @@
         <v>23219</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>1</v>
@@ -4578,27 +4579,27 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH16" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI16" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI16" s="1" t="s">
-        <v>647</v>
-      </c>
       <c r="AJ16" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
@@ -4607,10 +4608,10 @@
         <v>31</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>27</v>
@@ -4656,27 +4657,27 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH17" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI17" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI17" s="1" t="s">
+      <c r="AJ17" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ17" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="18" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -4685,10 +4686,10 @@
         <v>36</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>33</v>
@@ -4738,27 +4739,27 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH18" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI18" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI18" s="1" t="s">
+      <c r="AJ18" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ18" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="19" spans="1:36" ht="256" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -4767,10 +4768,10 @@
         <v>39</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>38</v>
@@ -4816,27 +4817,27 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH19" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI19" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI19" s="1" t="s">
+      <c r="AJ19" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ19" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="20" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -4845,10 +4846,10 @@
         <v>45</v>
       </c>
       <c r="E20" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>44</v>
@@ -4894,27 +4895,27 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH20" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI20" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI20" s="1" t="s">
+      <c r="AJ20" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ20" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="21" spans="1:36" ht="144" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -4923,10 +4924,10 @@
         <v>49</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>48</v>
@@ -4972,27 +4973,27 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH21" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI21" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI21" s="1" t="s">
+      <c r="AJ21" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ21" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="22" spans="1:36" ht="80" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -5001,10 +5002,10 @@
         <v>52</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>51</v>
@@ -5050,27 +5051,27 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH22" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI22" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI22" s="1" t="s">
+      <c r="AJ22" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ22" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="23" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C23" s="1">
         <v>4</v>
@@ -5079,10 +5080,10 @@
         <v>65</v>
       </c>
       <c r="E23" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>60</v>
@@ -5134,27 +5135,27 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH23" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI23" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI23" s="1" t="s">
+      <c r="AJ23" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ23" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="24" spans="1:36" ht="64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
@@ -5163,10 +5164,10 @@
         <v>68</v>
       </c>
       <c r="E24" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>60</v>
@@ -5216,27 +5217,27 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH24" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI24" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI24" s="1" t="s">
+      <c r="AJ24" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="AJ24" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="192" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C25" s="1">
         <v>6</v>
@@ -5245,10 +5246,10 @@
         <v>115</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>113</v>
@@ -5288,13 +5289,13 @@
         <v>117</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AA25" s="22" t="s">
-        <v>118</v>
+        <v>660</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AC25" s="22">
         <v>677</v>
@@ -5302,39 +5303,39 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH25" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI25" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI25" s="1" t="s">
+      <c r="AJ25" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ25" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="26" spans="1:36" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C26" s="1">
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>113</v>
@@ -5360,7 +5361,7 @@
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>1</v>
@@ -5380,39 +5381,39 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH26" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI26" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI26" s="1" t="s">
+      <c r="AJ26" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ26" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="27" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C27" s="1">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>113</v>
@@ -5438,7 +5439,7 @@
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>1</v>
@@ -5460,55 +5461,55 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH27" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI27" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI27" s="1" t="s">
+      <c r="AJ27" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ27" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="28" spans="1:36" ht="192" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C28" s="1">
         <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -5518,13 +5519,13 @@
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W28" s="1"/>
       <c r="X28" s="1" t="s">
@@ -5540,45 +5541,45 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH28" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI28" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI28" s="1" t="s">
+      <c r="AJ28" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ28" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="29" spans="1:36" ht="96" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C29" s="1">
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E29" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -5589,7 +5590,7 @@
         <v>34</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -5598,7 +5599,7 @@
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>1</v>
@@ -5618,45 +5619,45 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH29" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI29" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI29" s="1" t="s">
+      <c r="AJ29" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ29" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="30" spans="1:36" ht="128" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C30" s="1">
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E30" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G30" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -5667,7 +5668,7 @@
         <v>34</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>1</v>
@@ -5690,51 +5691,51 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AC30" s="22"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH30" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI30" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI30" s="1" t="s">
+      <c r="AJ30" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ30" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="31" spans="1:36" ht="80" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C31" s="1">
         <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E31" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -5745,7 +5746,7 @@
         <v>34</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -5754,7 +5755,7 @@
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>1</v>
@@ -5768,51 +5769,51 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AC31" s="22"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH31" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI31" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI31" s="1" t="s">
+      <c r="AJ31" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ31" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="32" spans="1:36" ht="176" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C32" s="1">
         <v>15</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -5823,7 +5824,7 @@
         <v>34</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -5832,7 +5833,7 @@
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>1</v>
@@ -5846,51 +5847,51 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AC32" s="22"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH32" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI32" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI32" s="1" t="s">
+      <c r="AJ32" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ32" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="33" spans="1:36" ht="144" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C33" s="1">
         <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -5901,7 +5902,7 @@
         <v>34</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -5910,7 +5911,7 @@
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>1</v>
@@ -5924,7 +5925,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AC33" s="22">
         <v>671</v>
@@ -5932,45 +5933,45 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG33" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH33" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI33" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI33" s="1" t="s">
+      <c r="AJ33" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ33" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="34" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C34" s="1">
         <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E34" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -5981,7 +5982,7 @@
         <v>34</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -5990,7 +5991,7 @@
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>1</v>
@@ -6002,57 +6003,57 @@
       </c>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="AA34" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="AA34" s="1" t="s">
-        <v>627</v>
-      </c>
       <c r="AB34" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AC34" s="22"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH34" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI34" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI34" s="1" t="s">
+      <c r="AJ34" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ34" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="35" spans="1:36" ht="128" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C35" s="1">
         <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E35" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G35" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -6067,14 +6068,14 @@
         <v>34</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R35" s="1">
         <v>1941</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>1</v>
@@ -6086,57 +6087,57 @@
       </c>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AC35" s="22"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="25" t="s">
+        <v>643</v>
+      </c>
+      <c r="AG35" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AG35" s="1" t="s">
+      <c r="AH35" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AH35" s="1" t="s">
+      <c r="AI35" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI35" s="1" t="s">
+      <c r="AJ35" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ35" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="36" spans="1:36" ht="112" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C36" s="1">
         <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E36" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -6147,7 +6148,7 @@
         <v>34</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>1</v>
@@ -6176,45 +6177,45 @@
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG36" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH36" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI36" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI36" s="1" t="s">
+      <c r="AJ36" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ36" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="37" spans="1:36" ht="128" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C37" s="1">
         <v>16</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E37" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -6225,7 +6226,7 @@
         <v>34</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -6234,7 +6235,7 @@
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>1</v>
@@ -6248,7 +6249,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC37" s="22">
         <v>325</v>
@@ -6256,45 +6257,45 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG37" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH37" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI37" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI37" s="1" t="s">
+      <c r="AJ37" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ37" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="38" spans="1:36" ht="128" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C38" s="1">
         <v>16</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E38" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -6305,7 +6306,7 @@
         <v>34</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -6314,7 +6315,7 @@
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>1</v>
@@ -6336,45 +6337,45 @@
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
       <c r="AF38" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH38" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI38" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI38" s="1" t="s">
+      <c r="AJ38" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ38" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="39" spans="1:36" ht="112" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C39" s="1">
         <v>16</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E39" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -6385,7 +6386,7 @@
         <v>34</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -6394,7 +6395,7 @@
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>1</v>
@@ -6408,51 +6409,51 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AC39" s="22"/>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
       <c r="AF39" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG39" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH39" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI39" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI39" s="1" t="s">
+      <c r="AJ39" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ39" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="40" spans="1:36" ht="128" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E40" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G40" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -6467,14 +6468,14 @@
         <v>34</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R40" s="1">
         <v>1949</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>1</v>
@@ -6486,10 +6487,10 @@
       </c>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AB40" s="1">
         <v>328</v>
@@ -6498,48 +6499,48 @@
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AF40" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AG40" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH40" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI40" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI40" s="1" t="s">
+      <c r="AJ40" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ40" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="41" spans="1:36" ht="208" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C41" s="1">
         <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H41" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="I41" s="15" t="s">
         <v>592</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>593</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -6549,7 +6550,7 @@
         <v>63</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -6558,7 +6559,7 @@
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>1</v>
@@ -6578,48 +6579,48 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
       <c r="AF41" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG41" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH41" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI41" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI41" s="1" t="s">
+      <c r="AJ41" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ41" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="42" spans="1:36" ht="48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C42" s="1">
         <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H42" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="I42" s="15" t="s">
         <v>592</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>593</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -6629,7 +6630,7 @@
         <v>63</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -6638,7 +6639,7 @@
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>1</v>
@@ -6650,72 +6651,72 @@
       </c>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AA42" s="1">
         <v>480</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AC42" s="22"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
       <c r="AF42" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AG42" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH42" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI42" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI42" s="1" t="s">
+      <c r="AJ42" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ42" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="43" spans="1:36" ht="128" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C43" s="1">
         <v>9</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H43" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="I43" s="15" t="s">
         <v>597</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>598</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>63</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -6724,7 +6725,7 @@
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>1</v>
@@ -6741,67 +6742,67 @@
         <v>300</v>
       </c>
       <c r="AC43" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
       <c r="AF43" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG43" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH43" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI43" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI43" s="1" t="s">
+      <c r="AJ43" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ43" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="44" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C44" s="1">
         <v>62</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H44" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="I44" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="J44" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="K44" s="15" t="s">
         <v>618</v>
-      </c>
-      <c r="K44" s="15" t="s">
-        <v>619</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -6810,7 +6811,7 @@
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>1</v>
@@ -6830,48 +6831,48 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
       <c r="AF44" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG44" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH44" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI44" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI44" s="1" t="s">
+      <c r="AJ44" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ44" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="45" spans="1:36" ht="48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C45" s="1">
         <v>48</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="15" t="s">
         <v>582</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>583</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -6881,7 +6882,7 @@
         <v>63</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -6890,7 +6891,7 @@
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>1</v>
@@ -6902,66 +6903,66 @@
       </c>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AA45" s="1">
         <v>480</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AC45" s="22"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
       <c r="AF45" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AG45" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH45" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI45" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI45" s="1" t="s">
+      <c r="AJ45" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ45" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="46" spans="1:36" ht="112" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C46" s="1">
         <v>41</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="17" t="s">
         <v>572</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="J46" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="K46" s="15" t="s">
         <v>574</v>
-      </c>
-      <c r="K46" s="15" t="s">
-        <v>575</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -6969,7 +6970,7 @@
         <v>63</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -6978,7 +6979,7 @@
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>1</v>
@@ -6992,60 +6993,60 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC46" s="22"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
       <c r="AF46" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG46" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH46" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI46" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI46" s="1" t="s">
+      <c r="AJ46" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ46" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="47" spans="1:36" ht="48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C47" s="1">
         <v>43</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="I47" s="15" t="s">
+      <c r="J47" s="15" t="s">
         <v>578</v>
       </c>
-      <c r="J47" s="15" t="s">
+      <c r="K47" s="15" t="s">
         <v>579</v>
-      </c>
-      <c r="K47" s="15" t="s">
-        <v>580</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -7053,7 +7054,7 @@
         <v>63</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -7062,13 +7063,13 @@
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>1</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W47" s="1"/>
       <c r="X47" s="1" t="s">
@@ -7084,45 +7085,45 @@
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
       <c r="AF47" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG47" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH47" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI47" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI47" s="1" t="s">
+      <c r="AJ47" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ47" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="48" spans="1:36" ht="64" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C48" s="1">
         <v>32</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>565</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -7133,7 +7134,7 @@
         <v>63</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -7142,7 +7143,7 @@
       </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>1</v>
@@ -7162,45 +7163,45 @@
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG48" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH48" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI48" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI48" s="1" t="s">
+      <c r="AJ48" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ48" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="49" spans="1:36" ht="96" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C49" s="1">
         <v>32</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -7211,7 +7212,7 @@
         <v>63</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -7220,7 +7221,7 @@
       </c>
       <c r="S49" s="1"/>
       <c r="T49" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>1</v>
@@ -7240,27 +7241,27 @@
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH49" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI49" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI49" s="1" t="s">
+      <c r="AJ49" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ49" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="50" spans="1:36" ht="48" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -7269,10 +7270,10 @@
         <v>7</v>
       </c>
       <c r="E50" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>3</v>
@@ -7320,27 +7321,27 @@
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
       <c r="AF50" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH50" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI50" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI50" s="1" t="s">
+      <c r="AJ50" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ50" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="51" spans="1:36" ht="64" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -7349,10 +7350,10 @@
         <v>11</v>
       </c>
       <c r="E51" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>9</v>
@@ -7400,27 +7401,27 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG51" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH51" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI51" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI51" s="1" t="s">
+      <c r="AJ51" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ51" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="52" spans="1:36" ht="80" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -7429,10 +7430,10 @@
         <v>15</v>
       </c>
       <c r="E52" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>13</v>
@@ -7480,27 +7481,27 @@
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
       <c r="AF52" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG52" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH52" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI52" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI52" s="1" t="s">
+      <c r="AJ52" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ52" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="53" spans="1:36" ht="160" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -7509,10 +7510,10 @@
         <v>19</v>
       </c>
       <c r="E53" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>17</v>
@@ -7554,10 +7555,10 @@
       </c>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="AA53" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="AA53" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="AB53" s="1">
         <v>410</v>
@@ -7566,27 +7567,27 @@
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH53" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI53" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI53" s="1" t="s">
+      <c r="AJ53" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ53" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="54" spans="1:36" ht="288" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" ht="288" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C54" s="1">
         <v>5</v>
@@ -7595,10 +7596,10 @@
         <v>85</v>
       </c>
       <c r="E54" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>83</v>
@@ -7646,27 +7647,27 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG54" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH54" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI54" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI54" s="1" t="s">
+      <c r="AJ54" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ54" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="55" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C55" s="1">
         <v>5</v>
@@ -7675,10 +7676,10 @@
         <v>82</v>
       </c>
       <c r="E55" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>79</v>
@@ -7704,7 +7705,7 @@
       </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>1</v>
@@ -7726,27 +7727,27 @@
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
       <c r="AF55" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG55" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH55" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI55" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI55" s="1" t="s">
+      <c r="AJ55" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ55" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="56" spans="1:36" ht="112" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C56" s="1">
         <v>5</v>
@@ -7755,10 +7756,10 @@
         <v>93</v>
       </c>
       <c r="E56" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>91</v>
@@ -7804,27 +7805,27 @@
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
       <c r="AF56" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG56" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH56" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI56" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI56" s="1" t="s">
+      <c r="AJ56" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ56" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="57" spans="1:36" ht="128" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C57" s="1">
         <v>5</v>
@@ -7833,10 +7834,10 @@
         <v>89</v>
       </c>
       <c r="E57" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>87</v>
@@ -7882,27 +7883,27 @@
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
       <c r="AF57" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG57" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH57" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI57" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI57" s="1" t="s">
+      <c r="AJ57" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ57" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="58" spans="1:36" ht="160" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C58" s="1">
         <v>5</v>
@@ -7911,10 +7912,10 @@
         <v>77</v>
       </c>
       <c r="E58" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>74</v>
@@ -7962,27 +7963,27 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
       <c r="AF58" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG58" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH58" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI58" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI58" s="1" t="s">
+      <c r="AJ58" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ58" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="59" spans="1:36" ht="64" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C59" s="1">
         <v>6</v>
@@ -7991,10 +7992,10 @@
         <v>98</v>
       </c>
       <c r="E59" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F59" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>95</v>
@@ -8040,27 +8041,27 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
       <c r="AF59" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG59" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH59" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI59" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI59" s="1" t="s">
+      <c r="AJ59" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ59" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="60" spans="1:36" ht="64" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C60" s="1">
         <v>6</v>
@@ -8069,10 +8070,10 @@
         <v>100</v>
       </c>
       <c r="E60" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>95</v>
@@ -8118,27 +8119,27 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
       <c r="AF60" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG60" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH60" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI60" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI60" s="1" t="s">
+      <c r="AJ60" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ60" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="61" spans="1:36" ht="288" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" ht="288" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C61" s="1">
         <v>6</v>
@@ -8147,10 +8148,10 @@
         <v>105</v>
       </c>
       <c r="E61" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>103</v>
@@ -8196,27 +8197,27 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG61" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH61" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI61" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI61" s="1" t="s">
+      <c r="AJ61" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ61" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="62" spans="1:36" ht="64" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C62" s="1">
         <v>6</v>
@@ -8225,10 +8226,10 @@
         <v>107</v>
       </c>
       <c r="E62" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>103</v>
@@ -8274,27 +8275,27 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH62" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI62" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI62" s="1" t="s">
+      <c r="AJ62" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ62" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="63" spans="1:36" ht="256" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C63" s="1">
         <v>6</v>
@@ -8303,10 +8304,10 @@
         <v>109</v>
       </c>
       <c r="E63" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>103</v>
@@ -8344,10 +8345,10 @@
       </c>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="AA63" s="22" t="s">
         <v>629</v>
-      </c>
-      <c r="AA63" s="22" t="s">
-        <v>630</v>
       </c>
       <c r="AB63" s="1">
         <v>307</v>
@@ -8358,55 +8359,55 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
       <c r="AF63" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AG63" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH63" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI63" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI63" s="1" t="s">
+      <c r="AJ63" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ63" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="64" spans="1:36" ht="96" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C64" s="1">
         <v>7</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E64" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F64" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -8416,7 +8417,7 @@
       </c>
       <c r="S64" s="1"/>
       <c r="T64" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U64" s="1" t="s">
         <v>1</v>
@@ -8428,10 +8429,10 @@
       </c>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AA64" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AB64" s="1">
         <v>480</v>
@@ -8440,55 +8441,55 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
       <c r="AF64" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AG64" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH64" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI64" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI64" s="1" t="s">
+      <c r="AJ64" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ64" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="65" spans="1:36" ht="128" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C65" s="1">
         <v>7</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E65" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F65" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G65" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N65" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -8498,7 +8499,7 @@
       </c>
       <c r="S65" s="1"/>
       <c r="T65" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U65" s="1" t="s">
         <v>1</v>
@@ -8518,55 +8519,55 @@
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
       <c r="AF65" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG65" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH65" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI65" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI65" s="1" t="s">
+      <c r="AJ65" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ65" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="66" spans="1:36" ht="160" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C66" s="1">
         <v>7</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E66" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F66" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G66" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -8576,16 +8577,16 @@
       </c>
       <c r="S66" s="1"/>
       <c r="T66" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V66" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X66" s="1" t="s">
         <v>2</v>
@@ -8600,45 +8601,45 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
       <c r="AF66" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH66" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI66" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI66" s="1" t="s">
+      <c r="AJ66" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ66" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="67" spans="1:36" ht="112" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C67" s="1">
         <v>8</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E67" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F67" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G67" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -8649,7 +8650,7 @@
         <v>34</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -8658,7 +8659,7 @@
       </c>
       <c r="S67" s="1"/>
       <c r="T67" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U67" s="1" t="s">
         <v>1</v>
@@ -8672,51 +8673,51 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
       <c r="AB67" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AC67" s="22"/>
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
       <c r="AF67" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG67" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH67" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI67" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI67" s="1" t="s">
+      <c r="AJ67" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ67" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="68" spans="1:36" ht="96" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C68" s="1">
         <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E68" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F68" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G68" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -8727,20 +8728,20 @@
         <v>34</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R68" s="9">
         <v>13317</v>
       </c>
       <c r="S68" s="1"/>
       <c r="T68" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U68" s="1" t="s">
         <v>21</v>
@@ -8754,57 +8755,57 @@
       </c>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AB68" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC68" s="22"/>
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
       <c r="AF68" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AG68" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH68" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI68" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI68" s="1" t="s">
+      <c r="AJ68" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ68" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="69" spans="1:36" ht="192" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C69" s="1">
         <v>8</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E69" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F69" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G69" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -8815,7 +8816,7 @@
         <v>34</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -8824,7 +8825,7 @@
       </c>
       <c r="S69" s="1"/>
       <c r="T69" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U69" s="1" t="s">
         <v>1</v>
@@ -8838,51 +8839,51 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
       <c r="AB69" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC69" s="22"/>
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
       <c r="AF69" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG69" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH69" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI69" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI69" s="1" t="s">
+      <c r="AJ69" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ69" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="70" spans="1:36" ht="64" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C70" s="1">
         <v>12</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E70" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F70" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G70" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -8890,16 +8891,16 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O70" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="P70" s="1" t="s">
         <v>63</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R70" s="9">
         <v>14029</v>
@@ -8908,7 +8909,7 @@
         <v>14117</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U70" s="1" t="s">
         <v>1</v>
@@ -8922,51 +8923,51 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
       <c r="AB70" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC70" s="22"/>
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
       <c r="AF70" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG70" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH70" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI70" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI70" s="1" t="s">
+      <c r="AJ70" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ70" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="71" spans="1:36" ht="64" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C71" s="1">
         <v>12</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E71" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F71" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G71" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -8974,16 +8975,16 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O71" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="P71" s="1" t="s">
         <v>63</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R71" s="9">
         <v>14029</v>
@@ -8992,7 +8993,7 @@
         <v>14117</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U71" s="1" t="s">
         <v>1</v>
@@ -9012,45 +9013,45 @@
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
       <c r="AF71" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG71" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH71" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI71" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI71" s="1" t="s">
+      <c r="AJ71" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ71" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="72" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C72" s="1">
         <v>12</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E72" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F72" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G72" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -9058,10 +9059,10 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -9072,7 +9073,7 @@
         <v>14117</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U72" s="1" t="s">
         <v>1</v>
@@ -9086,51 +9087,51 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC72" s="22"/>
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
       <c r="AF72" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG72" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH72" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI72" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI72" s="1" t="s">
+      <c r="AJ72" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ72" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="73" spans="1:36" ht="48" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C73" s="1">
         <v>12</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E73" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F73" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G73" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -9138,10 +9139,10 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -9152,7 +9153,7 @@
         <v>14117</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U73" s="1" t="s">
         <v>1</v>
@@ -9166,51 +9167,51 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
       <c r="AB73" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC73" s="22"/>
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
       <c r="AF73" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG73" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH73" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI73" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI73" s="1" t="s">
+      <c r="AJ73" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ73" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="74" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:36" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C74" s="1">
         <v>12</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E74" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F74" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G74" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -9218,10 +9219,10 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -9232,7 +9233,7 @@
         <v>14117</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U74" s="1" t="s">
         <v>1</v>
@@ -9244,57 +9245,57 @@
       </c>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AA74" s="1">
         <v>480</v>
       </c>
       <c r="AB74" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AC74" s="22"/>
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
       <c r="AF74" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AG74" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH74" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI74" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI74" s="1" t="s">
+      <c r="AJ74" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ74" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="75" spans="1:36" ht="64" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C75" s="1">
         <v>12</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E75" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F75" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G75" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -9302,16 +9303,16 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R75" s="9">
         <v>14029</v>
@@ -9320,13 +9321,13 @@
         <v>14117</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U75" s="1" t="s">
         <v>1</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W75" s="1"/>
       <c r="X75" s="1" t="s">
@@ -9342,45 +9343,45 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
       <c r="AF75" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG75" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH75" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI75" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI75" s="1" t="s">
+      <c r="AJ75" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ75" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="76" spans="1:36" ht="64" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C76" s="1">
         <v>12</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E76" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F76" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G76" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -9388,10 +9389,10 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -9402,7 +9403,7 @@
         <v>14117</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U76" s="1" t="s">
         <v>1</v>
@@ -9422,45 +9423,45 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
       <c r="AF76" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG76" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH76" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI76" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI76" s="1" t="s">
+      <c r="AJ76" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ76" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="77" spans="1:36" ht="64" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C77" s="1">
         <v>12</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E77" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F77" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G77" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -9482,7 +9483,7 @@
         <v>14117</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U77" s="1" t="s">
         <v>1</v>
@@ -9496,51 +9497,51 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
       <c r="AB77" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC77" s="22"/>
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
       <c r="AF77" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG77" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH77" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI77" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI77" s="1" t="s">
+      <c r="AJ77" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ77" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="78" spans="1:36" ht="96" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C78" s="1">
         <v>12</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E78" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F78" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G78" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -9548,16 +9549,16 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O78" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="P78" s="1" t="s">
         <v>63</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R78" s="9">
         <v>14029</v>
@@ -9566,7 +9567,7 @@
         <v>14117</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U78" s="1" t="s">
         <v>1</v>
@@ -9586,45 +9587,45 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
       <c r="AF78" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG78" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH78" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI78" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI78" s="1" t="s">
+      <c r="AJ78" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ78" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="79" spans="1:36" ht="64" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C79" s="1">
         <v>12</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E79" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F79" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G79" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -9632,16 +9633,16 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O79" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="P79" s="1" t="s">
         <v>63</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R79" s="9">
         <v>14029</v>
@@ -9650,7 +9651,7 @@
         <v>14117</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U79" s="1" t="s">
         <v>1</v>
@@ -9662,57 +9663,57 @@
       </c>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AA79" s="1">
         <v>480</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AC79" s="22"/>
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
       <c r="AF79" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AG79" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH79" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI79" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI79" s="1" t="s">
+      <c r="AJ79" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ79" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="80" spans="1:36" ht="192" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:36" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C80" s="1">
         <v>13</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E80" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F80" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F80" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G80" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -9723,7 +9724,7 @@
         <v>34</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -9732,7 +9733,7 @@
       </c>
       <c r="S80" s="1"/>
       <c r="T80" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U80" s="1" t="s">
         <v>1</v>
@@ -9744,10 +9745,10 @@
       </c>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="AA80" s="22" t="s">
         <v>629</v>
-      </c>
-      <c r="AA80" s="22" t="s">
-        <v>630</v>
       </c>
       <c r="AB80" s="1">
         <v>307</v>
@@ -9758,45 +9759,45 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
       <c r="AF80" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AG80" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH80" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI80" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI80" s="1" t="s">
+      <c r="AJ80" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ80" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="81" spans="1:36" ht="208" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:36" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C81" s="1">
         <v>13</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E81" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F81" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G81" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -9807,7 +9808,7 @@
         <v>34</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -9816,7 +9817,7 @@
       </c>
       <c r="S81" s="1"/>
       <c r="T81" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U81" s="1" t="s">
         <v>1</v>
@@ -9827,16 +9828,16 @@
         <v>2</v>
       </c>
       <c r="Y81" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z81" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="AA81" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB81" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="Z81" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="AA81" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="AB81" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="AC81" s="22">
         <v>1000</v>
@@ -9846,45 +9847,45 @@
       </c>
       <c r="AE81" s="1"/>
       <c r="AF81" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AG81" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH81" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI81" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI81" s="1" t="s">
+      <c r="AJ81" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ81" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="82" spans="1:36" ht="96" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C82" s="1">
         <v>13</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E82" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F82" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F82" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G82" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -9895,7 +9896,7 @@
         <v>34</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -9904,7 +9905,7 @@
       </c>
       <c r="S82" s="1"/>
       <c r="T82" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U82" s="1" t="s">
         <v>1</v>
@@ -9916,57 +9917,57 @@
       </c>
       <c r="Y82" s="1"/>
       <c r="Z82" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AA82" s="1">
         <v>480</v>
       </c>
       <c r="AB82" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AC82" s="22"/>
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
       <c r="AF82" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AG82" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH82" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI82" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI82" s="1" t="s">
+      <c r="AJ82" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ82" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="83" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C83" s="1">
         <v>13</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E83" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F83" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G83" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -9977,7 +9978,7 @@
         <v>34</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -9986,7 +9987,7 @@
       </c>
       <c r="S83" s="1"/>
       <c r="T83" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U83" s="1" t="s">
         <v>1</v>
@@ -10006,45 +10007,45 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
       <c r="AF83" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH83" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI83" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI83" s="1" t="s">
+      <c r="AJ83" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ83" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="84" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C84" s="1">
         <v>13</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E84" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F84" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G84" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -10055,7 +10056,7 @@
         <v>34</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -10064,7 +10065,7 @@
       </c>
       <c r="S84" s="1"/>
       <c r="T84" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U84" s="1" t="s">
         <v>1</v>
@@ -10076,10 +10077,10 @@
       </c>
       <c r="Y84" s="1"/>
       <c r="Z84" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AA84" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AB84" s="1">
         <v>707</v>
@@ -10088,45 +10089,45 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
       <c r="AF84" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AG84" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH84" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI84" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI84" s="1" t="s">
+      <c r="AJ84" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ84" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="85" spans="1:36" ht="96" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C85" s="1">
         <v>13</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E85" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F85" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G85" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -10137,7 +10138,7 @@
         <v>34</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -10146,7 +10147,7 @@
       </c>
       <c r="S85" s="1"/>
       <c r="T85" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U85" s="1" t="s">
         <v>1</v>
@@ -10166,45 +10167,45 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
       <c r="AF85" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG85" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH85" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI85" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI85" s="1" t="s">
+      <c r="AJ85" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ85" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="86" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C86" s="1">
         <v>13</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E86" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F86" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G86" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -10215,7 +10216,7 @@
         <v>34</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -10224,7 +10225,7 @@
       </c>
       <c r="S86" s="1"/>
       <c r="T86" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U86" s="1" t="s">
         <v>1</v>
@@ -10246,45 +10247,45 @@
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
       <c r="AF86" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG86" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH86" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI86" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI86" s="1" t="s">
+      <c r="AJ86" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ86" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="87" spans="1:36" ht="160" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:36" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C87" s="1">
         <v>13</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E87" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F87" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F87" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G87" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -10295,7 +10296,7 @@
         <v>34</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -10304,7 +10305,7 @@
       </c>
       <c r="S87" s="1"/>
       <c r="T87" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U87" s="1" t="s">
         <v>1</v>
@@ -10324,45 +10325,45 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
       <c r="AF87" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG87" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH87" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI87" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI87" s="1" t="s">
+      <c r="AJ87" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ87" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="88" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C88" s="1">
         <v>13</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E88" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F88" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F88" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G88" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -10373,7 +10374,7 @@
         <v>34</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -10382,7 +10383,7 @@
       </c>
       <c r="S88" s="1"/>
       <c r="T88" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U88" s="1" t="s">
         <v>1</v>
@@ -10398,7 +10399,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
       <c r="AB88" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AC88" s="22">
         <v>307</v>
@@ -10406,45 +10407,45 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
       <c r="AF88" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG88" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH88" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI88" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI88" s="1" t="s">
+      <c r="AJ88" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ88" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="89" spans="1:36" ht="64" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C89" s="1">
         <v>13</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E89" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F89" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F89" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G89" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H89" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I89" s="16"/>
       <c r="J89" s="1"/>
@@ -10455,7 +10456,7 @@
         <v>34</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -10464,7 +10465,7 @@
       </c>
       <c r="S89" s="1"/>
       <c r="T89" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U89" s="1" t="s">
         <v>1</v>
@@ -10484,45 +10485,45 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
       <c r="AF89" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG89" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH89" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI89" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI89" s="1" t="s">
+      <c r="AJ89" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ89" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="90" spans="1:36" ht="350" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:36" ht="350" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C90" s="1">
         <v>13</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E90" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F90" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G90" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I90" s="16"/>
       <c r="J90" s="1"/>
@@ -10533,7 +10534,7 @@
         <v>34</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -10542,7 +10543,7 @@
       </c>
       <c r="S90" s="1"/>
       <c r="T90" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U90" s="1" t="s">
         <v>1</v>
@@ -10562,51 +10563,51 @@
         <v>580</v>
       </c>
       <c r="AD90" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE90" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="AE90" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="AF90" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG90" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH90" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI90" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI90" s="1" t="s">
+      <c r="AJ90" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ90" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="91" spans="1:36" ht="128" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C91" s="1">
         <v>13</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E91" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F91" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F91" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G91" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H91" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I91" s="16"/>
       <c r="J91" s="1"/>
@@ -10617,7 +10618,7 @@
         <v>34</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -10626,7 +10627,7 @@
       </c>
       <c r="S91" s="1"/>
       <c r="T91" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U91" s="1" t="s">
         <v>1</v>
@@ -10640,51 +10641,51 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
       <c r="AB91" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AC91" s="22"/>
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
       <c r="AF91" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG91" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH91" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI91" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI91" s="1" t="s">
+      <c r="AJ91" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ91" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="92" spans="1:36" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C92" s="1">
         <v>13</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E92" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F92" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F92" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G92" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H92" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I92" s="18"/>
       <c r="J92" s="1"/>
@@ -10695,7 +10696,7 @@
         <v>34</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -10716,51 +10717,51 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
       <c r="AB92" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AC92" s="22"/>
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
       <c r="AF92" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG92" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH92" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI92" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI92" s="1" t="s">
+      <c r="AJ92" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ92" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="93" spans="1:36" ht="128" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C93" s="1">
         <v>13</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E93" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F93" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F93" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G93" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H93" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I93" s="16"/>
       <c r="J93" s="16"/>
@@ -10771,7 +10772,7 @@
         <v>34</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -10780,7 +10781,7 @@
       </c>
       <c r="S93" s="1"/>
       <c r="T93" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U93" s="1" t="s">
         <v>1</v>
@@ -10800,45 +10801,45 @@
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
       <c r="AF93" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG93" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH93" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI93" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI93" s="1" t="s">
+      <c r="AJ93" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ93" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="94" spans="1:36" ht="96" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C94" s="1">
         <v>13</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E94" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F94" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G94" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H94" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I94" s="16"/>
       <c r="J94" s="16"/>
@@ -10849,7 +10850,7 @@
         <v>34</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -10858,7 +10859,7 @@
       </c>
       <c r="S94" s="1"/>
       <c r="T94" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U94" s="1" t="s">
         <v>1</v>
@@ -10878,45 +10879,45 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
       <c r="AF94" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG94" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH94" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI94" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI94" s="1" t="s">
+      <c r="AJ94" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ94" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="95" spans="1:36" ht="64" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C95" s="1">
         <v>13</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E95" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F95" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F95" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G95" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H95" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I95" s="16"/>
       <c r="J95" s="16"/>
@@ -10927,7 +10928,7 @@
         <v>34</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
@@ -10936,7 +10937,7 @@
       </c>
       <c r="S95" s="1"/>
       <c r="T95" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U95" s="1" t="s">
         <v>1</v>
@@ -10956,45 +10957,45 @@
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
       <c r="AF95" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG95" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH95" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI95" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI95" s="1" t="s">
+      <c r="AJ95" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ95" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="96" spans="1:36" ht="64" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C96" s="1">
         <v>13</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E96" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F96" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F96" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G96" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H96" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I96" s="16"/>
       <c r="J96" s="1"/>
@@ -11005,7 +11006,7 @@
         <v>34</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -11014,7 +11015,7 @@
       </c>
       <c r="S96" s="1"/>
       <c r="T96" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U96" s="1" t="s">
         <v>1</v>
@@ -11034,45 +11035,45 @@
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
       <c r="AF96" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG96" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH96" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI96" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI96" s="1" t="s">
+      <c r="AJ96" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ96" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="97" spans="1:36" ht="80" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C97" s="1">
         <v>13</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E97" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F97" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F97" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G97" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I97" s="16"/>
       <c r="J97" s="1"/>
@@ -11083,7 +11084,7 @@
         <v>34</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -11092,7 +11093,7 @@
       </c>
       <c r="S97" s="1"/>
       <c r="T97" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U97" s="1" t="s">
         <v>1</v>
@@ -11112,45 +11113,45 @@
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
       <c r="AF97" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG97" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH97" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI97" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI97" s="1" t="s">
+      <c r="AJ97" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ97" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="98" spans="1:36" ht="80" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C98" s="1">
         <v>13</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E98" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F98" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F98" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G98" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I98" s="16"/>
       <c r="J98" s="1"/>
@@ -11161,7 +11162,7 @@
         <v>34</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -11170,7 +11171,7 @@
       </c>
       <c r="S98" s="1"/>
       <c r="T98" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U98" s="1" t="s">
         <v>1</v>
@@ -11192,69 +11193,69 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
       <c r="AF98" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG98" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH98" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI98" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI98" s="1" t="s">
+      <c r="AJ98" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ98" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="99" spans="1:36" ht="80" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C99" s="1">
         <v>7</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E99" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F99" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F99" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G99" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O99" s="1"/>
       <c r="P99" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q99" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="Q99" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="R99" s="1">
         <v>1935</v>
       </c>
       <c r="S99" s="1"/>
       <c r="T99" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U99" s="1" t="s">
         <v>1</v>
@@ -11274,45 +11275,45 @@
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
       <c r="AF99" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG99" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH99" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI99" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI99" s="1" t="s">
+      <c r="AJ99" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ99" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="100" spans="1:36" ht="365" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:36" ht="365" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E100" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F100" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F100" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G100" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -11323,13 +11324,13 @@
         <v>0</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P100" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R100" s="9">
         <v>17724</v>
@@ -11338,7 +11339,7 @@
         <v>17727</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U100" s="1" t="s">
         <v>1</v>
@@ -11358,45 +11359,45 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
       <c r="AF100" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG100" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH100" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI100" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI100" s="1" t="s">
+      <c r="AJ100" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ100" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="101" spans="1:36" ht="80" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E101" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F101" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F101" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G101" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -11407,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
@@ -11418,13 +11419,13 @@
         <v>18088</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W101" s="1"/>
       <c r="X101" s="1" t="s">
@@ -11440,54 +11441,54 @@
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
       <c r="AF101" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG101" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH101" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI101" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI101" s="1" t="s">
+      <c r="AJ101" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ101" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="102" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C102" s="1">
         <v>12</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H102" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="I102" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="I102" s="15" t="s">
+      <c r="J102" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="J102" s="15" t="s">
+      <c r="K102" s="15" t="s">
         <v>602</v>
-      </c>
-      <c r="K102" s="15" t="s">
-        <v>603</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
@@ -11495,7 +11496,7 @@
         <v>63</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
@@ -11506,7 +11507,7 @@
         <v>23207</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U102" s="1" t="s">
         <v>1</v>
@@ -11523,7 +11524,7 @@
         <v>552</v>
       </c>
       <c r="AC102" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AD102" s="1">
         <v>554</v>
@@ -11532,45 +11533,45 @@
         <v>301</v>
       </c>
       <c r="AF102" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG102" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH102" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI102" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI102" s="1" t="s">
+      <c r="AJ102" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ102" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="103" spans="1:36" ht="144" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:36" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C103" s="1">
         <v>32</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -11581,7 +11582,7 @@
         <v>63</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
@@ -11590,7 +11591,7 @@
       </c>
       <c r="S103" s="1"/>
       <c r="T103" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U103" s="1" t="s">
         <v>1</v>
@@ -11610,64 +11611,64 @@
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
       <c r="AF103" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG103" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH103" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI103" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI103" s="1" t="s">
+      <c r="AJ103" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ103" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="104" spans="1:36" ht="144" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:36" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C104" s="1">
         <v>13</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H104" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="I104" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="I104" s="15" t="s">
+      <c r="J104" s="15" t="s">
         <v>606</v>
       </c>
-      <c r="J104" s="15" t="s">
+      <c r="K104" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="K104" s="15" t="s">
+      <c r="L104" s="15" t="s">
         <v>608</v>
-      </c>
-      <c r="L104" s="15" t="s">
-        <v>609</v>
       </c>
       <c r="M104" s="1"/>
       <c r="N104" s="1" t="s">
         <v>63</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
@@ -11678,7 +11679,7 @@
         <v>23204</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="U104" s="1" t="s">
         <v>1</v>
@@ -11691,7 +11692,7 @@
         <v>2</v>
       </c>
       <c r="Y104" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
@@ -11706,48 +11707,48 @@
       </c>
       <c r="AE104" s="1"/>
       <c r="AF104" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG104" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH104" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI104" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI104" s="1" t="s">
+      <c r="AJ104" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ104" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="105" spans="1:36" ht="64" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C105" s="1">
         <v>13</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H105" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I105" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -11757,7 +11758,7 @@
         <v>63</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
@@ -11766,7 +11767,7 @@
       </c>
       <c r="S105" s="1"/>
       <c r="T105" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U105" s="1" t="s">
         <v>1</v>
@@ -11786,48 +11787,48 @@
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
       <c r="AF105" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG105" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH105" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI105" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI105" s="1" t="s">
+      <c r="AJ105" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ105" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="106" spans="1:36" ht="160" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:36" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C106" s="1">
         <v>13</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H106" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I106" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -11837,7 +11838,7 @@
         <v>63</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
@@ -11846,13 +11847,13 @@
       </c>
       <c r="S106" s="1"/>
       <c r="T106" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U106" s="1" t="s">
         <v>1</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W106" s="1"/>
       <c r="X106" s="1" t="s">
@@ -11862,56 +11863,56 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
       <c r="AB106" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AC106" s="22"/>
       <c r="AD106" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AE106" s="1"/>
       <c r="AF106" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG106" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH106" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI106" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI106" s="1" t="s">
+      <c r="AJ106" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ106" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="107" spans="1:36" ht="365" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:36" ht="365" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C107" s="1">
         <v>13</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H107" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J107" s="16"/>
       <c r="K107" s="16"/>
@@ -11921,7 +11922,7 @@
         <v>63</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
@@ -11930,7 +11931,7 @@
       </c>
       <c r="S107" s="1"/>
       <c r="T107" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U107" s="1" t="s">
         <v>1</v>
@@ -11947,54 +11948,54 @@
         <v>552</v>
       </c>
       <c r="AC107" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AD107" s="1">
         <v>554</v>
       </c>
       <c r="AE107" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF107" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG107" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH107" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI107" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI107" s="1" t="s">
+      <c r="AJ107" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ107" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="108" spans="1:36" ht="208" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:36" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C108" s="1">
         <v>13</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E108" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F108" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F108" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G108" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H108" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I108" s="16"/>
       <c r="J108" s="16"/>
@@ -12005,7 +12006,7 @@
         <v>34</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
@@ -12014,7 +12015,7 @@
       </c>
       <c r="S108" s="1"/>
       <c r="T108" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U108" s="1" t="s">
         <v>1</v>
@@ -12034,48 +12035,48 @@
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
       <c r="AF108" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG108" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH108" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI108" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI108" s="1" t="s">
+      <c r="AJ108" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ108" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="109" spans="1:36" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H109" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="I109" s="14" t="s">
         <v>588</v>
-      </c>
-      <c r="I109" s="14" t="s">
-        <v>589</v>
       </c>
       <c r="J109" s="16"/>
       <c r="K109" s="18"/>
@@ -12085,7 +12086,7 @@
         <v>63</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
@@ -12096,13 +12097,13 @@
         <v>23219</v>
       </c>
       <c r="T109" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U109" s="1" t="s">
         <v>1</v>
       </c>
       <c r="V109" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W109" s="1"/>
       <c r="X109" s="1" t="s">
@@ -12118,60 +12119,60 @@
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
       <c r="AF109" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG109" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH109" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI109" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI109" s="1" t="s">
+      <c r="AJ109" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ109" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="110" spans="1:36" ht="48" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:36" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C110" s="1">
         <v>18</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H110" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="I110" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="I110" s="16" t="s">
+      <c r="J110" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O110" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="O110" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
@@ -12180,7 +12181,7 @@
       </c>
       <c r="S110" s="1"/>
       <c r="T110" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="U110" s="1" t="s">
         <v>1</v>
@@ -12192,64 +12193,64 @@
       </c>
       <c r="Y110" s="1"/>
       <c r="Z110" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AA110" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AB110" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AC110" s="22"/>
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
       <c r="AF110" s="25" t="s">
+        <v>643</v>
+      </c>
+      <c r="AG110" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AG110" s="1" t="s">
+      <c r="AH110" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AH110" s="1" t="s">
+      <c r="AI110" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI110" s="1" t="s">
+      <c r="AJ110" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ110" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="111" spans="1:36" ht="288" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:36" ht="288" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C111" s="1">
         <v>25</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I111" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="I111" s="16" t="s">
+      <c r="J111" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="J111" s="1" t="s">
+      <c r="K111" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>559</v>
       </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
@@ -12257,7 +12258,7 @@
         <v>63</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
@@ -12268,7 +12269,7 @@
         <v>24295</v>
       </c>
       <c r="T111" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U111" s="1" t="s">
         <v>1</v>
@@ -12282,7 +12283,7 @@
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
       <c r="AB111" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AC111" s="22">
         <v>707</v>
@@ -12290,51 +12291,51 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
       <c r="AF111" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG111" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH111" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI111" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI111" s="1" t="s">
+      <c r="AJ111" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ111" s="1" t="s">
-        <v>648</v>
-      </c>
     </row>
-    <row r="112" spans="1:36" ht="396" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" ht="396" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C112" s="3">
         <v>29</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G112" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="H112" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="H112" s="16" t="s">
+      <c r="I112" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="I112" s="16" t="s">
+      <c r="J112" s="16" t="s">
         <v>562</v>
-      </c>
-      <c r="J112" s="16" t="s">
-        <v>563</v>
       </c>
       <c r="K112" s="16"/>
       <c r="L112" s="3"/>
@@ -12343,7 +12344,7 @@
         <v>63</v>
       </c>
       <c r="O112" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
@@ -12354,7 +12355,7 @@
         <v>24309</v>
       </c>
       <c r="T112" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U112" s="3" t="s">
         <v>1</v>
@@ -12366,10 +12367,10 @@
       </c>
       <c r="Y112" s="3"/>
       <c r="Z112" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AA112" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AB112" s="1">
         <v>707</v>
@@ -12378,45 +12379,45 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
       <c r="AF112" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AG112" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH112" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI112" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI112" s="1" t="s">
+      <c r="AJ112" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AJ112" s="1" t="s">
+    </row>
+    <row r="113" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="7" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="113" spans="1:36" ht="112" x14ac:dyDescent="0.2">
-      <c r="A113" s="7" t="s">
-        <v>649</v>
-      </c>
       <c r="B113" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C113" s="1">
         <v>13</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E113" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F113" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="F113" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="G113" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -12427,7 +12428,7 @@
         <v>34</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
@@ -12436,7 +12437,7 @@
       </c>
       <c r="S113" s="1"/>
       <c r="T113" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U113" s="1" t="s">
         <v>1</v>
@@ -12455,28 +12456,34 @@
         <v>737</v>
       </c>
       <c r="AC113" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
       <c r="AF113" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG113" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH113" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AI113" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AI113" s="1" t="s">
+      <c r="AJ113" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="AJ113" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ113" xr:uid="{B84DAE8B-405E-4655-89DF-BEE99C6D5E84}"/>
+  <autoFilter ref="A1:AJ113" xr:uid="{B84DAE8B-405E-4655-89DF-BEE99C6D5E84}">
+    <filterColumn colId="26">
+      <filters>
+        <filter val="SUS 677***"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/data/index/corpus_a_index_clean_atu.xlsx
+++ b/data/index/corpus_a_index_clean_atu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenia/Desktop/thesis/magic_tagger/data/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F68462-6215-E945-B68E-4B1A73304900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D103415-0D16-3940-AE63-32E434F721EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="1280" windowWidth="29560" windowHeight="18360" xr2:uid="{2FED5107-BDBA-42C2-8B25-B9C3018C5C1C}"/>
   </bookViews>
@@ -1463,9 +1463,6 @@
     <t>RKM, Vene</t>
   </si>
   <si>
-    <t>TRÜ, VKK</t>
-  </si>
-  <si>
     <t>transcript_only</t>
   </si>
   <si>
@@ -2124,6 +2121,9 @@
   </si>
   <si>
     <t>677***</t>
+  </si>
+  <si>
+    <t>TRU, VKK</t>
   </si>
 </sst>
 </file>
@@ -2814,7 +2814,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2844,9 +2844,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3266,9 +3263,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA118" sqref="AA118"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7:B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3381,42 +3378,42 @@
         <v>429</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AB1" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AC1" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="AD1" s="26" t="s">
+      <c r="AD1" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="AE1" s="26" t="s">
+      <c r="AE1" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AF1" s="23" t="s">
+        <v>635</v>
+      </c>
+      <c r="AG1" s="23" t="s">
         <v>636</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="AH1" s="23" t="s">
+        <v>638</v>
+      </c>
+      <c r="AI1" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="AH1" s="24" t="s">
+      <c r="AJ1" s="23" t="s">
         <v>639</v>
-      </c>
-      <c r="AI1" s="24" t="s">
-        <v>638</v>
-      </c>
-      <c r="AJ1" s="24" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>439</v>
@@ -3428,10 +3425,10 @@
         <v>42</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>41</v>
@@ -3471,28 +3468,28 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
-      <c r="AC2" s="22"/>
+      <c r="AC2" s="21"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH2" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI2" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="AJ2" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>439</v>
@@ -3504,10 +3501,10 @@
         <v>72</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
@@ -3545,28 +3542,28 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
-      <c r="AC3" s="22"/>
+      <c r="AC3" s="21"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH3" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI3" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI3" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="AJ3" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>439</v>
@@ -3578,10 +3575,10 @@
         <v>111</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>103</v>
@@ -3621,28 +3618,28 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="22"/>
+      <c r="AC4" s="21"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH4" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI4" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI4" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="AJ4" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>439</v>
@@ -3654,10 +3651,10 @@
         <v>147</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>145</v>
@@ -3699,28 +3696,28 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="22"/>
+      <c r="AC5" s="21"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH5" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI5" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI5" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="AJ5" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>441</v>
@@ -3732,10 +3729,10 @@
         <v>335</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>332</v>
@@ -3777,31 +3774,31 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
-      <c r="AC6" s="22"/>
+      <c r="AC6" s="21"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH6" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI6" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI6" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="AJ6" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="350" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" ht="350" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C7" s="1">
         <v>52</v>
@@ -3810,19 +3807,19 @@
         <v>405</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>612</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="I7" s="14" t="s">
         <v>613</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>614</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -3855,31 +3852,31 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="22"/>
+      <c r="AC7" s="21"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH7" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI7" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI7" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="AJ7" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C8" s="1">
         <v>38</v>
@@ -3888,19 +3885,19 @@
         <v>391</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -3933,31 +3930,31 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="22"/>
+      <c r="AC8" s="21"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH8" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI8" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI8" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="AJ8" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C9" s="1">
         <v>41</v>
@@ -3966,25 +3963,25 @@
         <v>396</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>570</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>572</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>571</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -4015,31 +4012,31 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
-      <c r="AC9" s="22"/>
+      <c r="AC9" s="21"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH9" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI9" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI9" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="AJ9" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" ht="176" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C10" s="1">
         <v>32</v>
@@ -4048,16 +4045,16 @@
         <v>386</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -4091,28 +4088,28 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
-      <c r="AC10" s="22"/>
+      <c r="AC10" s="21"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH10" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI10" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI10" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="AJ10" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>439</v>
@@ -4124,10 +4121,10 @@
         <v>25</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>22</v>
@@ -4169,28 +4166,28 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
-      <c r="AC11" s="22"/>
+      <c r="AC11" s="21"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH11" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI11" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI11" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="AJ11" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>439</v>
@@ -4202,10 +4199,10 @@
         <v>58</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>54</v>
@@ -4245,28 +4242,28 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
-      <c r="AC12" s="22"/>
+      <c r="AC12" s="21"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH12" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI12" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI12" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="AJ12" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>439</v>
@@ -4278,10 +4275,10 @@
         <v>132</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>128</v>
@@ -4327,28 +4324,28 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="22"/>
+      <c r="AC13" s="21"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH13" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI13" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI13" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="AJ13" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>441</v>
@@ -4360,10 +4357,10 @@
         <v>327</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>321</v>
@@ -4409,31 +4406,31 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="22"/>
+      <c r="AC14" s="21"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH14" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI14" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI14" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="AJ14" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C15" s="1">
         <v>13</v>
@@ -4442,28 +4439,28 @@
         <v>358</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="H15" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="J15" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="K15" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="L15" s="14" t="s">
         <v>607</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>608</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
@@ -4495,31 +4492,31 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="22"/>
+      <c r="AC15" s="21"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH15" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI15" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI15" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="AJ15" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="320" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" ht="320" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -4528,19 +4525,19 @@
         <v>340</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="H16" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>587</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>588</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -4575,28 +4572,28 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
-      <c r="AC16" s="22"/>
+      <c r="AC16" s="21"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH16" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI16" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI16" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="AJ16" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>439</v>
@@ -4608,10 +4605,10 @@
         <v>31</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>27</v>
@@ -4653,28 +4650,28 @@
       <c r="AB17" s="1">
         <v>450</v>
       </c>
-      <c r="AC17" s="22"/>
+      <c r="AC17" s="21"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
-      <c r="AF17" s="25" t="s">
-        <v>651</v>
+      <c r="AF17" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH17" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI17" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI17" s="1" t="s">
+      <c r="AJ17" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ17" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>439</v>
@@ -4686,10 +4683,10 @@
         <v>36</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>33</v>
@@ -4735,28 +4732,28 @@
       <c r="AB18" s="1">
         <v>707</v>
       </c>
-      <c r="AC18" s="22"/>
+      <c r="AC18" s="21"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
-      <c r="AF18" s="25" t="s">
-        <v>651</v>
+      <c r="AF18" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH18" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI18" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI18" s="1" t="s">
+      <c r="AJ18" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ18" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>439</v>
@@ -4768,10 +4765,10 @@
         <v>39</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>38</v>
@@ -4813,28 +4810,28 @@
       <c r="AB19" s="1">
         <v>613</v>
       </c>
-      <c r="AC19" s="22"/>
+      <c r="AC19" s="21"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
-      <c r="AF19" s="25" t="s">
-        <v>651</v>
+      <c r="AF19" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH19" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI19" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI19" s="1" t="s">
+      <c r="AJ19" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ19" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>439</v>
@@ -4846,10 +4843,10 @@
         <v>45</v>
       </c>
       <c r="E20" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>44</v>
@@ -4891,28 +4888,28 @@
       <c r="AB20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AC20" s="22"/>
+      <c r="AC20" s="21"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
-      <c r="AF20" s="25" t="s">
-        <v>651</v>
+      <c r="AF20" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH20" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI20" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI20" s="1" t="s">
+      <c r="AJ20" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ20" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>439</v>
@@ -4924,10 +4921,10 @@
         <v>49</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>48</v>
@@ -4969,28 +4966,28 @@
       <c r="AB21" s="1">
         <v>531</v>
       </c>
-      <c r="AC21" s="22"/>
+      <c r="AC21" s="21"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
-      <c r="AF21" s="25" t="s">
-        <v>651</v>
+      <c r="AF21" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH21" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI21" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI21" s="1" t="s">
+      <c r="AJ21" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ21" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>439</v>
@@ -5002,10 +4999,10 @@
         <v>52</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>51</v>
@@ -5047,28 +5044,28 @@
       <c r="AB22" s="1">
         <v>307</v>
       </c>
-      <c r="AC22" s="22"/>
+      <c r="AC22" s="21"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
-      <c r="AF22" s="25" t="s">
-        <v>651</v>
+      <c r="AF22" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH22" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI22" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI22" s="1" t="s">
+      <c r="AJ22" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ22" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>439</v>
@@ -5080,10 +5077,10 @@
         <v>65</v>
       </c>
       <c r="E23" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>60</v>
@@ -5129,30 +5126,30 @@
       <c r="AB23" s="1">
         <v>530</v>
       </c>
-      <c r="AC23" s="22" t="s">
+      <c r="AC23" s="21" t="s">
         <v>67</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
-      <c r="AF23" s="25" t="s">
-        <v>651</v>
+      <c r="AF23" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH23" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI23" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI23" s="1" t="s">
+      <c r="AJ23" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ23" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>439</v>
@@ -5164,10 +5161,10 @@
         <v>68</v>
       </c>
       <c r="E24" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>60</v>
@@ -5213,28 +5210,28 @@
       <c r="AB24" s="1">
         <v>707</v>
       </c>
-      <c r="AC24" s="22"/>
+      <c r="AC24" s="21"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
-      <c r="AF24" s="25" t="s">
-        <v>651</v>
+      <c r="AF24" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH24" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI24" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI24" s="1" t="s">
+      <c r="AJ24" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AJ24" s="1" t="s">
-        <v>647</v>
-      </c>
     </row>
-    <row r="25" spans="1:36" ht="192" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>439</v>
@@ -5246,10 +5243,10 @@
         <v>115</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>113</v>
@@ -5289,38 +5286,38 @@
         <v>117</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="AA25" s="22" t="s">
-        <v>660</v>
+        <v>624</v>
+      </c>
+      <c r="AA25" s="21" t="s">
+        <v>659</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AC25" s="22">
+        <v>652</v>
+      </c>
+      <c r="AC25" s="21">
         <v>677</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
-      <c r="AF25" s="25" t="s">
-        <v>643</v>
+      <c r="AF25" s="24" t="s">
+        <v>642</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH25" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI25" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI25" s="1" t="s">
+      <c r="AJ25" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ25" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="26" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>439</v>
@@ -5332,10 +5329,10 @@
         <v>118</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>113</v>
@@ -5377,28 +5374,28 @@
       <c r="AB26" s="1">
         <v>707</v>
       </c>
-      <c r="AC26" s="22"/>
+      <c r="AC26" s="21"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
-      <c r="AF26" s="25" t="s">
-        <v>651</v>
+      <c r="AF26" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH26" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI26" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI26" s="1" t="s">
+      <c r="AJ26" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ26" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>439</v>
@@ -5410,10 +5407,10 @@
         <v>120</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>113</v>
@@ -5455,30 +5452,30 @@
       <c r="AB27" s="1">
         <v>530</v>
       </c>
-      <c r="AC27" s="22" t="s">
+      <c r="AC27" s="21" t="s">
         <v>67</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
-      <c r="AF27" s="25" t="s">
-        <v>651</v>
+      <c r="AF27" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH27" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI27" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI27" s="1" t="s">
+      <c r="AJ27" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ27" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>439</v>
@@ -5490,10 +5487,10 @@
         <v>142</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>140</v>
@@ -5537,28 +5534,28 @@
       <c r="AB28" s="1">
         <v>301</v>
       </c>
-      <c r="AC28" s="22"/>
+      <c r="AC28" s="21"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
-      <c r="AF28" s="25" t="s">
-        <v>651</v>
+      <c r="AF28" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH28" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI28" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI28" s="1" t="s">
+      <c r="AJ28" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ28" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>439</v>
@@ -5570,10 +5567,10 @@
         <v>280</v>
       </c>
       <c r="E29" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>279</v>
@@ -5615,28 +5612,28 @@
       <c r="AB29" s="1">
         <v>470</v>
       </c>
-      <c r="AC29" s="22"/>
+      <c r="AC29" s="21"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
-      <c r="AF29" s="25" t="s">
-        <v>651</v>
+      <c r="AF29" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH29" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI29" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI29" s="1" t="s">
+      <c r="AJ29" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ29" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>439</v>
@@ -5648,10 +5645,10 @@
         <v>290</v>
       </c>
       <c r="E30" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>287</v>
@@ -5693,28 +5690,28 @@
       <c r="AB30" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AC30" s="22"/>
+      <c r="AC30" s="21"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
-      <c r="AF30" s="25" t="s">
-        <v>651</v>
+      <c r="AF30" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH30" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI30" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI30" s="1" t="s">
+      <c r="AJ30" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ30" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="31" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>439</v>
@@ -5726,10 +5723,10 @@
         <v>294</v>
       </c>
       <c r="E31" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>292</v>
@@ -5771,28 +5768,28 @@
       <c r="AB31" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AC31" s="22"/>
+      <c r="AC31" s="21"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
-      <c r="AF31" s="25" t="s">
-        <v>651</v>
+      <c r="AF31" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH31" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI31" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI31" s="1" t="s">
+      <c r="AJ31" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ31" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>439</v>
@@ -5804,10 +5801,10 @@
         <v>297</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>292</v>
@@ -5849,28 +5846,28 @@
       <c r="AB32" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AC32" s="22"/>
+      <c r="AC32" s="21"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
-      <c r="AF32" s="25" t="s">
-        <v>651</v>
+      <c r="AF32" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH32" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI32" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI32" s="1" t="s">
+      <c r="AJ32" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ32" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="33" spans="1:36" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>439</v>
@@ -5882,10 +5879,10 @@
         <v>301</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>299</v>
@@ -5927,30 +5924,30 @@
       <c r="AB33" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AC33" s="22">
+      <c r="AC33" s="21">
         <v>671</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
-      <c r="AF33" s="25" t="s">
-        <v>651</v>
+      <c r="AF33" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG33" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH33" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI33" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI33" s="1" t="s">
+      <c r="AJ33" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ33" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="34" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>439</v>
@@ -5962,10 +5959,10 @@
         <v>306</v>
       </c>
       <c r="E34" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>304</v>
@@ -6003,36 +6000,36 @@
       </c>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA34" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="AA34" s="1" t="s">
-        <v>626</v>
-      </c>
       <c r="AB34" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="AC34" s="22"/>
+        <v>621</v>
+      </c>
+      <c r="AC34" s="21"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
-      <c r="AF34" s="25" t="s">
-        <v>643</v>
+      <c r="AF34" s="24" t="s">
+        <v>642</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH34" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI34" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI34" s="1" t="s">
+      <c r="AJ34" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ34" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="35" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>439</v>
@@ -6044,10 +6041,10 @@
         <v>285</v>
       </c>
       <c r="E35" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>282</v>
@@ -6087,36 +6084,36 @@
       </c>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AB35" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AC35" s="22"/>
+      <c r="AC35" s="21"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
-      <c r="AF35" s="25" t="s">
+      <c r="AF35" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="AG35" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="AG35" s="1" t="s">
+      <c r="AH35" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AH35" s="1" t="s">
+      <c r="AI35" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI35" s="1" t="s">
+      <c r="AJ35" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ35" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="36" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>439</v>
@@ -6128,10 +6125,10 @@
         <v>319</v>
       </c>
       <c r="E36" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>315</v>
@@ -6173,28 +6170,28 @@
       <c r="AB36" s="1">
         <v>300</v>
       </c>
-      <c r="AC36" s="22"/>
+      <c r="AC36" s="21"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
-      <c r="AF36" s="25" t="s">
-        <v>651</v>
+      <c r="AF36" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG36" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH36" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI36" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI36" s="1" t="s">
+      <c r="AJ36" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ36" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="37" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>439</v>
@@ -6206,10 +6203,10 @@
         <v>310</v>
       </c>
       <c r="E37" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>308</v>
@@ -6251,30 +6248,30 @@
       <c r="AB37" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="AC37" s="22">
+      <c r="AC37" s="21">
         <v>325</v>
       </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
-      <c r="AF37" s="25" t="s">
-        <v>651</v>
+      <c r="AF37" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG37" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH37" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI37" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI37" s="1" t="s">
+      <c r="AJ37" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ37" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="38" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>439</v>
@@ -6286,10 +6283,10 @@
         <v>313</v>
       </c>
       <c r="E38" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>308</v>
@@ -6331,30 +6328,30 @@
       <c r="AB38" s="1">
         <v>402</v>
       </c>
-      <c r="AC38" s="22">
+      <c r="AC38" s="21">
         <v>325</v>
       </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
-      <c r="AF38" s="25" t="s">
-        <v>651</v>
+      <c r="AF38" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH38" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI38" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI38" s="1" t="s">
+      <c r="AJ38" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ38" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="39" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>439</v>
@@ -6366,10 +6363,10 @@
         <v>316</v>
       </c>
       <c r="E39" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>315</v>
@@ -6411,28 +6408,28 @@
       <c r="AB39" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AC39" s="22"/>
+      <c r="AC39" s="21"/>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
-      <c r="AF39" s="25" t="s">
-        <v>651</v>
+      <c r="AF39" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG39" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH39" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI39" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI39" s="1" t="s">
+      <c r="AJ39" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ39" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="40" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>441</v>
@@ -6444,10 +6441,10 @@
         <v>337</v>
       </c>
       <c r="E40" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>332</v>
@@ -6487,39 +6484,39 @@
       </c>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AB40" s="1">
         <v>328</v>
       </c>
-      <c r="AC40" s="22"/>
+      <c r="AC40" s="21"/>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
-      <c r="AF40" s="25" t="s">
-        <v>643</v>
+      <c r="AF40" s="24" t="s">
+        <v>642</v>
       </c>
       <c r="AG40" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH40" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI40" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI40" s="1" t="s">
+      <c r="AJ40" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AJ40" s="1" t="s">
-        <v>647</v>
-      </c>
     </row>
-    <row r="41" spans="1:36" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" ht="208" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C41" s="1">
         <v>5</v>
@@ -6528,19 +6525,19 @@
         <v>345</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="H41" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="I41" s="14" t="s">
         <v>591</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>592</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -6575,31 +6572,31 @@
       <c r="AB41" s="1">
         <v>530</v>
       </c>
-      <c r="AC41" s="22"/>
+      <c r="AC41" s="21"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
-      <c r="AF41" s="25" t="s">
-        <v>651</v>
+      <c r="AF41" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG41" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH41" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI41" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI41" s="1" t="s">
+      <c r="AJ41" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AJ41" s="1" t="s">
-        <v>647</v>
-      </c>
     </row>
-    <row r="42" spans="1:36" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C42" s="1">
         <v>5</v>
@@ -6608,19 +6605,19 @@
         <v>347</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="H42" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="I42" s="14" t="s">
         <v>591</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>592</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -6651,39 +6648,39 @@
       </c>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AA42" s="1">
         <v>480</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="AC42" s="22"/>
+        <v>622</v>
+      </c>
+      <c r="AC42" s="21"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
-      <c r="AF42" s="25" t="s">
-        <v>643</v>
+      <c r="AF42" s="24" t="s">
+        <v>642</v>
       </c>
       <c r="AG42" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH42" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI42" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI42" s="1" t="s">
+      <c r="AJ42" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AJ42" s="1" t="s">
-        <v>647</v>
-      </c>
     </row>
-    <row r="43" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" ht="128" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C43" s="1">
         <v>9</v>
@@ -6692,19 +6689,19 @@
         <v>350</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="H43" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="I43" s="14" t="s">
         <v>596</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>597</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -6741,33 +6738,33 @@
       <c r="AB43" s="1">
         <v>300</v>
       </c>
-      <c r="AC43" s="22" t="s">
+      <c r="AC43" s="21" t="s">
         <v>352</v>
       </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
-      <c r="AF43" s="25" t="s">
-        <v>651</v>
+      <c r="AF43" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG43" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH43" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI43" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI43" s="1" t="s">
+      <c r="AJ43" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AJ43" s="1" t="s">
-        <v>647</v>
-      </c>
     </row>
-    <row r="44" spans="1:36" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C44" s="1">
         <v>62</v>
@@ -6776,25 +6773,25 @@
         <v>408</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="H44" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="I44" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="J44" s="14" t="s">
         <v>616</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="K44" s="14" t="s">
         <v>617</v>
-      </c>
-      <c r="K44" s="15" t="s">
-        <v>618</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -6827,31 +6824,31 @@
       <c r="AB44" s="1">
         <v>550</v>
       </c>
-      <c r="AC44" s="22"/>
+      <c r="AC44" s="21"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
-      <c r="AF44" s="25" t="s">
-        <v>651</v>
+      <c r="AF44" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG44" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH44" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI44" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI44" s="1" t="s">
+      <c r="AJ44" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AJ44" s="1" t="s">
-        <v>647</v>
-      </c>
     </row>
-    <row r="45" spans="1:36" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C45" s="1">
         <v>48</v>
@@ -6860,19 +6857,19 @@
         <v>402</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="14" t="s">
         <v>581</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>582</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -6903,39 +6900,39 @@
       </c>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AA45" s="1">
         <v>480</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="AC45" s="22"/>
+        <v>622</v>
+      </c>
+      <c r="AC45" s="21"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
-      <c r="AF45" s="25" t="s">
-        <v>643</v>
+      <c r="AF45" s="24" t="s">
+        <v>642</v>
       </c>
       <c r="AG45" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH45" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI45" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI45" s="1" t="s">
+      <c r="AJ45" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AJ45" s="1" t="s">
-        <v>647</v>
-      </c>
     </row>
-    <row r="46" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" ht="112" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C46" s="1">
         <v>41</v>
@@ -6944,25 +6941,25 @@
         <v>410</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="J46" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="K46" s="14" t="s">
         <v>573</v>
-      </c>
-      <c r="K46" s="15" t="s">
-        <v>574</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -6995,31 +6992,31 @@
       <c r="AB46" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="AC46" s="22"/>
+      <c r="AC46" s="21"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
-      <c r="AF46" s="25" t="s">
-        <v>651</v>
+      <c r="AF46" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG46" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH46" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI46" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI46" s="1" t="s">
+      <c r="AJ46" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AJ46" s="1" t="s">
-        <v>647</v>
-      </c>
     </row>
-    <row r="47" spans="1:36" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C47" s="1">
         <v>43</v>
@@ -7028,25 +7025,25 @@
         <v>399</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="I47" s="15" t="s">
+      <c r="J47" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="J47" s="15" t="s">
+      <c r="K47" s="14" t="s">
         <v>578</v>
-      </c>
-      <c r="K47" s="15" t="s">
-        <v>579</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -7081,31 +7078,31 @@
       <c r="AB47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AC47" s="22"/>
+      <c r="AC47" s="21"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
-      <c r="AF47" s="25" t="s">
-        <v>651</v>
+      <c r="AF47" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG47" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH47" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI47" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI47" s="1" t="s">
+      <c r="AJ47" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AJ47" s="1" t="s">
-        <v>647</v>
-      </c>
     </row>
-    <row r="48" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C48" s="1">
         <v>32</v>
@@ -7114,16 +7111,16 @@
         <v>382</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -7159,31 +7156,31 @@
       <c r="AB48" s="1">
         <v>552</v>
       </c>
-      <c r="AC48" s="22"/>
+      <c r="AC48" s="21"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
-      <c r="AF48" s="25" t="s">
-        <v>651</v>
+      <c r="AF48" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG48" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH48" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI48" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI48" s="1" t="s">
+      <c r="AJ48" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AJ48" s="1" t="s">
-        <v>647</v>
-      </c>
     </row>
-    <row r="49" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" ht="96" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C49" s="1">
         <v>32</v>
@@ -7192,16 +7189,16 @@
         <v>388</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -7237,28 +7234,28 @@
       <c r="AB49" s="1">
         <v>550</v>
       </c>
-      <c r="AC49" s="22"/>
+      <c r="AC49" s="21"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
-      <c r="AF49" s="25" t="s">
-        <v>651</v>
+      <c r="AF49" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH49" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI49" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI49" s="1" t="s">
+      <c r="AJ49" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ49" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="50" spans="1:36" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>439</v>
@@ -7270,10 +7267,10 @@
         <v>7</v>
       </c>
       <c r="E50" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>3</v>
@@ -7317,28 +7314,28 @@
       <c r="AB50" s="1">
         <v>326</v>
       </c>
-      <c r="AC50" s="22"/>
+      <c r="AC50" s="21"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
-      <c r="AF50" s="25" t="s">
-        <v>651</v>
+      <c r="AF50" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH50" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI50" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI50" s="1" t="s">
+      <c r="AJ50" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ50" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="51" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>439</v>
@@ -7350,10 +7347,10 @@
         <v>11</v>
       </c>
       <c r="E51" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>9</v>
@@ -7397,28 +7394,28 @@
       <c r="AB51" s="1">
         <v>402</v>
       </c>
-      <c r="AC51" s="22"/>
+      <c r="AC51" s="21"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
-      <c r="AF51" s="25" t="s">
-        <v>651</v>
+      <c r="AF51" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG51" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH51" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI51" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI51" s="1" t="s">
+      <c r="AJ51" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ51" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="52" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>439</v>
@@ -7430,10 +7427,10 @@
         <v>15</v>
       </c>
       <c r="E52" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>13</v>
@@ -7477,28 +7474,28 @@
       <c r="AB52" s="1">
         <v>365</v>
       </c>
-      <c r="AC52" s="22"/>
+      <c r="AC52" s="21"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
-      <c r="AF52" s="25" t="s">
-        <v>651</v>
+      <c r="AF52" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG52" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH52" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI52" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI52" s="1" t="s">
+      <c r="AJ52" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ52" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="53" spans="1:36" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>439</v>
@@ -7510,10 +7507,10 @@
         <v>19</v>
       </c>
       <c r="E53" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>17</v>
@@ -7555,36 +7552,36 @@
       </c>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA53" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="AA53" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="AB53" s="1">
         <v>410</v>
       </c>
-      <c r="AC53" s="22"/>
+      <c r="AC53" s="21"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
-      <c r="AF53" s="25" t="s">
-        <v>643</v>
+      <c r="AF53" s="24" t="s">
+        <v>642</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH53" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI53" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI53" s="1" t="s">
+      <c r="AJ53" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ53" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="288" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>439</v>
@@ -7596,10 +7593,10 @@
         <v>85</v>
       </c>
       <c r="E54" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>83</v>
@@ -7641,30 +7638,30 @@
       <c r="AB54" s="1">
         <v>303</v>
       </c>
-      <c r="AC54" s="22">
+      <c r="AC54" s="21">
         <v>300</v>
       </c>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
-      <c r="AF54" s="25" t="s">
-        <v>651</v>
+      <c r="AF54" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG54" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH54" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI54" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI54" s="1" t="s">
+      <c r="AJ54" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ54" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="55" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>439</v>
@@ -7676,10 +7673,10 @@
         <v>82</v>
       </c>
       <c r="E55" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>79</v>
@@ -7705,7 +7702,7 @@
       </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>1</v>
@@ -7721,30 +7718,30 @@
       <c r="AB55" s="1">
         <v>935</v>
       </c>
-      <c r="AC55" s="22">
+      <c r="AC55" s="21">
         <v>314</v>
       </c>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
-      <c r="AF55" s="25" t="s">
-        <v>651</v>
+      <c r="AF55" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG55" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH55" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI55" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI55" s="1" t="s">
+      <c r="AJ55" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ55" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="56" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>439</v>
@@ -7756,10 +7753,10 @@
         <v>93</v>
       </c>
       <c r="E56" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>91</v>
@@ -7801,28 +7798,28 @@
       <c r="AB56" s="1">
         <v>706</v>
       </c>
-      <c r="AC56" s="22"/>
+      <c r="AC56" s="21"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
-      <c r="AF56" s="25" t="s">
-        <v>651</v>
+      <c r="AF56" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG56" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH56" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI56" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI56" s="1" t="s">
+      <c r="AJ56" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ56" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="57" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>439</v>
@@ -7834,10 +7831,10 @@
         <v>89</v>
       </c>
       <c r="E57" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>87</v>
@@ -7879,28 +7876,28 @@
       <c r="AB57" s="1">
         <v>313</v>
       </c>
-      <c r="AC57" s="22"/>
+      <c r="AC57" s="21"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
-      <c r="AF57" s="25" t="s">
-        <v>651</v>
+      <c r="AF57" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG57" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH57" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI57" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI57" s="1" t="s">
+      <c r="AJ57" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ57" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="58" spans="1:36" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>439</v>
@@ -7912,10 +7909,10 @@
         <v>77</v>
       </c>
       <c r="E58" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>74</v>
@@ -7957,30 +7954,30 @@
       <c r="AB58" s="1">
         <v>312</v>
       </c>
-      <c r="AC58" s="22">
+      <c r="AC58" s="21">
         <v>329</v>
       </c>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
-      <c r="AF58" s="25" t="s">
-        <v>651</v>
+      <c r="AF58" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG58" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH58" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI58" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI58" s="1" t="s">
+      <c r="AJ58" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ58" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="59" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>439</v>
@@ -7992,10 +7989,10 @@
         <v>98</v>
       </c>
       <c r="E59" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F59" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>95</v>
@@ -8037,28 +8034,28 @@
       <c r="AB59" s="1">
         <v>551</v>
       </c>
-      <c r="AC59" s="22"/>
+      <c r="AC59" s="21"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
-      <c r="AF59" s="25" t="s">
-        <v>651</v>
+      <c r="AF59" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG59" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH59" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI59" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI59" s="1" t="s">
+      <c r="AJ59" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ59" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="60" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>439</v>
@@ -8070,10 +8067,10 @@
         <v>100</v>
       </c>
       <c r="E60" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>95</v>
@@ -8115,28 +8112,28 @@
       <c r="AB60" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AC60" s="22"/>
+      <c r="AC60" s="21"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
-      <c r="AF60" s="25" t="s">
-        <v>651</v>
+      <c r="AF60" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG60" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH60" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI60" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI60" s="1" t="s">
+      <c r="AJ60" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ60" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="61" spans="1:36" ht="288" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>439</v>
@@ -8148,10 +8145,10 @@
         <v>105</v>
       </c>
       <c r="E61" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>103</v>
@@ -8193,28 +8190,28 @@
       <c r="AB61" s="1">
         <v>331</v>
       </c>
-      <c r="AC61" s="22"/>
+      <c r="AC61" s="21"/>
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
-      <c r="AF61" s="25" t="s">
-        <v>651</v>
+      <c r="AF61" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG61" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH61" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI61" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI61" s="1" t="s">
+      <c r="AJ61" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ61" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="62" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>439</v>
@@ -8226,10 +8223,10 @@
         <v>107</v>
       </c>
       <c r="E62" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>103</v>
@@ -8271,28 +8268,28 @@
       <c r="AB62" s="1">
         <v>303</v>
       </c>
-      <c r="AC62" s="22"/>
+      <c r="AC62" s="21"/>
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
-      <c r="AF62" s="25" t="s">
-        <v>651</v>
+      <c r="AF62" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH62" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI62" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI62" s="1" t="s">
+      <c r="AJ62" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ62" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="63" spans="1:36" ht="256" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>439</v>
@@ -8304,10 +8301,10 @@
         <v>109</v>
       </c>
       <c r="E63" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>103</v>
@@ -8345,38 +8342,38 @@
       </c>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA63" s="21" t="s">
         <v>628</v>
-      </c>
-      <c r="AA63" s="22" t="s">
-        <v>629</v>
       </c>
       <c r="AB63" s="1">
         <v>307</v>
       </c>
-      <c r="AC63" s="22">
+      <c r="AC63" s="21">
         <v>410</v>
       </c>
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
-      <c r="AF63" s="25" t="s">
-        <v>643</v>
+      <c r="AF63" s="24" t="s">
+        <v>642</v>
       </c>
       <c r="AG63" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH63" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI63" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI63" s="1" t="s">
+      <c r="AJ63" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ63" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="64" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>439</v>
@@ -8388,10 +8385,10 @@
         <v>138</v>
       </c>
       <c r="E64" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>135</v>
@@ -8429,36 +8426,36 @@
       </c>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AA64" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AB64" s="1">
         <v>480</v>
       </c>
-      <c r="AC64" s="22"/>
+      <c r="AC64" s="21"/>
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
-      <c r="AF64" s="25" t="s">
-        <v>643</v>
+      <c r="AF64" s="24" t="s">
+        <v>642</v>
       </c>
       <c r="AG64" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH64" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI64" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI64" s="1" t="s">
+      <c r="AJ64" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ64" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="65" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>439</v>
@@ -8470,10 +8467,10 @@
         <v>126</v>
       </c>
       <c r="E65" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>122</v>
@@ -8515,28 +8512,28 @@
       <c r="AB65" s="1">
         <v>301</v>
       </c>
-      <c r="AC65" s="22"/>
+      <c r="AC65" s="21"/>
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
-      <c r="AF65" s="25" t="s">
-        <v>651</v>
+      <c r="AF65" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG65" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH65" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI65" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI65" s="1" t="s">
+      <c r="AJ65" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ65" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="66" spans="1:36" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>439</v>
@@ -8548,10 +8545,10 @@
         <v>153</v>
       </c>
       <c r="E66" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>150</v>
@@ -8597,28 +8594,28 @@
       <c r="AB66" s="1">
         <v>592</v>
       </c>
-      <c r="AC66" s="22"/>
+      <c r="AC66" s="21"/>
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
-      <c r="AF66" s="25" t="s">
-        <v>651</v>
+      <c r="AF66" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH66" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI66" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI66" s="1" t="s">
+      <c r="AJ66" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ66" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="67" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>439</v>
@@ -8630,10 +8627,10 @@
         <v>166</v>
       </c>
       <c r="E67" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>163</v>
@@ -8675,28 +8672,28 @@
       <c r="AB67" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AC67" s="22"/>
+      <c r="AC67" s="21"/>
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
-      <c r="AF67" s="25" t="s">
-        <v>651</v>
+      <c r="AF67" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG67" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH67" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI67" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI67" s="1" t="s">
+      <c r="AJ67" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ67" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="68" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>439</v>
@@ -8708,10 +8705,10 @@
         <v>172</v>
       </c>
       <c r="E68" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>169</v>
@@ -8755,36 +8752,36 @@
       </c>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AB68" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AC68" s="22"/>
+      <c r="AC68" s="21"/>
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
-      <c r="AF68" s="25" t="s">
-        <v>643</v>
+      <c r="AF68" s="24" t="s">
+        <v>642</v>
       </c>
       <c r="AG68" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH68" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI68" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI68" s="1" t="s">
+      <c r="AJ68" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ68" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="69" spans="1:36" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>439</v>
@@ -8796,10 +8793,10 @@
         <v>176</v>
       </c>
       <c r="E69" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>174</v>
@@ -8841,28 +8838,28 @@
       <c r="AB69" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AC69" s="22"/>
+      <c r="AC69" s="21"/>
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
-      <c r="AF69" s="25" t="s">
-        <v>651</v>
+      <c r="AF69" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG69" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH69" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI69" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI69" s="1" t="s">
+      <c r="AJ69" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ69" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="70" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>439</v>
@@ -8874,10 +8871,10 @@
         <v>188</v>
       </c>
       <c r="E70" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>179</v>
@@ -8925,28 +8922,28 @@
       <c r="AB70" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AC70" s="22"/>
+      <c r="AC70" s="21"/>
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
-      <c r="AF70" s="25" t="s">
-        <v>651</v>
+      <c r="AF70" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG70" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH70" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI70" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI70" s="1" t="s">
+      <c r="AJ70" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ70" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="71" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>439</v>
@@ -8958,10 +8955,10 @@
         <v>191</v>
       </c>
       <c r="E71" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>179</v>
@@ -9009,28 +9006,28 @@
       <c r="AB71" s="1">
         <v>530</v>
       </c>
-      <c r="AC71" s="22"/>
+      <c r="AC71" s="21"/>
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
-      <c r="AF71" s="25" t="s">
-        <v>651</v>
+      <c r="AF71" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG71" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH71" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI71" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI71" s="1" t="s">
+      <c r="AJ71" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ71" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="72" spans="1:36" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>439</v>
@@ -9042,10 +9039,10 @@
         <v>195</v>
       </c>
       <c r="E72" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>193</v>
@@ -9089,28 +9086,28 @@
       <c r="AB72" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AC72" s="22"/>
+      <c r="AC72" s="21"/>
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
-      <c r="AF72" s="25" t="s">
-        <v>651</v>
+      <c r="AF72" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG72" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH72" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI72" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI72" s="1" t="s">
+      <c r="AJ72" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ72" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="73" spans="1:36" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>439</v>
@@ -9122,10 +9119,10 @@
         <v>200</v>
       </c>
       <c r="E73" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>198</v>
@@ -9169,28 +9166,28 @@
       <c r="AB73" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AC73" s="22"/>
+      <c r="AC73" s="21"/>
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
-      <c r="AF73" s="25" t="s">
-        <v>651</v>
+      <c r="AF73" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG73" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH73" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI73" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI73" s="1" t="s">
+      <c r="AJ73" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ73" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="74" spans="1:36" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>439</v>
@@ -9202,10 +9199,10 @@
         <v>203</v>
       </c>
       <c r="E74" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>201</v>
@@ -9245,36 +9242,36 @@
       </c>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AA74" s="1">
         <v>480</v>
       </c>
       <c r="AB74" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="AC74" s="22"/>
+        <v>622</v>
+      </c>
+      <c r="AC74" s="21"/>
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
-      <c r="AF74" s="25" t="s">
-        <v>643</v>
+      <c r="AF74" s="24" t="s">
+        <v>642</v>
       </c>
       <c r="AG74" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH74" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI74" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI74" s="1" t="s">
+      <c r="AJ74" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ74" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="75" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>439</v>
@@ -9286,10 +9283,10 @@
         <v>208</v>
       </c>
       <c r="E75" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>205</v>
@@ -9339,28 +9336,28 @@
       <c r="AB75" s="1">
         <v>700</v>
       </c>
-      <c r="AC75" s="22"/>
+      <c r="AC75" s="21"/>
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
-      <c r="AF75" s="25" t="s">
-        <v>651</v>
+      <c r="AF75" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG75" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH75" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI75" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI75" s="1" t="s">
+      <c r="AJ75" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ75" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="76" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>439</v>
@@ -9372,10 +9369,10 @@
         <v>213</v>
       </c>
       <c r="E76" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>211</v>
@@ -9419,28 +9416,28 @@
       <c r="AB76" s="1">
         <v>502</v>
       </c>
-      <c r="AC76" s="22"/>
+      <c r="AC76" s="21"/>
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
-      <c r="AF76" s="25" t="s">
-        <v>651</v>
+      <c r="AF76" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG76" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH76" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI76" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI76" s="1" t="s">
+      <c r="AJ76" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ76" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="77" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>439</v>
@@ -9452,10 +9449,10 @@
         <v>216</v>
       </c>
       <c r="E77" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>215</v>
@@ -9499,28 +9496,28 @@
       <c r="AB77" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AC77" s="22"/>
+      <c r="AC77" s="21"/>
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
-      <c r="AF77" s="25" t="s">
-        <v>651</v>
+      <c r="AF77" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG77" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH77" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI77" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI77" s="1" t="s">
+      <c r="AJ77" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ77" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="78" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>439</v>
@@ -9532,10 +9529,10 @@
         <v>184</v>
       </c>
       <c r="E78" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>179</v>
@@ -9583,28 +9580,28 @@
       <c r="AB78" s="1">
         <v>700</v>
       </c>
-      <c r="AC78" s="22"/>
+      <c r="AC78" s="21"/>
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
-      <c r="AF78" s="25" t="s">
-        <v>651</v>
+      <c r="AF78" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG78" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH78" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI78" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI78" s="1" t="s">
+      <c r="AJ78" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ78" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="79" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>439</v>
@@ -9616,10 +9613,10 @@
         <v>186</v>
       </c>
       <c r="E79" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>179</v>
@@ -9663,36 +9660,36 @@
       </c>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AA79" s="1">
         <v>480</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="AC79" s="22"/>
+        <v>622</v>
+      </c>
+      <c r="AC79" s="21"/>
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
-      <c r="AF79" s="25" t="s">
-        <v>643</v>
+      <c r="AF79" s="24" t="s">
+        <v>642</v>
       </c>
       <c r="AG79" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH79" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI79" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI79" s="1" t="s">
+      <c r="AJ79" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ79" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="80" spans="1:36" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>439</v>
@@ -9704,10 +9701,10 @@
         <v>245</v>
       </c>
       <c r="E80" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F80" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>243</v>
@@ -9745,38 +9742,38 @@
       </c>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA80" s="21" t="s">
         <v>628</v>
-      </c>
-      <c r="AA80" s="22" t="s">
-        <v>629</v>
       </c>
       <c r="AB80" s="1">
         <v>307</v>
       </c>
-      <c r="AC80" s="22">
+      <c r="AC80" s="21">
         <v>410</v>
       </c>
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
-      <c r="AF80" s="25" t="s">
-        <v>643</v>
+      <c r="AF80" s="24" t="s">
+        <v>642</v>
       </c>
       <c r="AG80" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH80" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI80" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI80" s="1" t="s">
+      <c r="AJ80" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ80" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="81" spans="1:36" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>439</v>
@@ -9788,10 +9785,10 @@
         <v>249</v>
       </c>
       <c r="E81" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>247</v>
@@ -9831,40 +9828,40 @@
         <v>251</v>
       </c>
       <c r="Z81" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AA81" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AB81" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AC81" s="22">
+      <c r="AC81" s="21">
         <v>1000</v>
       </c>
       <c r="AD81" s="1">
         <v>1060</v>
       </c>
       <c r="AE81" s="1"/>
-      <c r="AF81" s="25" t="s">
-        <v>643</v>
+      <c r="AF81" s="24" t="s">
+        <v>642</v>
       </c>
       <c r="AG81" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH81" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI81" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI81" s="1" t="s">
+      <c r="AJ81" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ81" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="82" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>439</v>
@@ -9876,10 +9873,10 @@
         <v>220</v>
       </c>
       <c r="E82" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F82" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>217</v>
@@ -9917,36 +9914,36 @@
       </c>
       <c r="Y82" s="1"/>
       <c r="Z82" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AA82" s="1">
         <v>480</v>
       </c>
       <c r="AB82" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="AC82" s="22"/>
+        <v>622</v>
+      </c>
+      <c r="AC82" s="21"/>
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
-      <c r="AF82" s="25" t="s">
-        <v>643</v>
+      <c r="AF82" s="24" t="s">
+        <v>642</v>
       </c>
       <c r="AG82" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH82" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI82" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI82" s="1" t="s">
+      <c r="AJ82" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ82" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="83" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>439</v>
@@ -9958,10 +9955,10 @@
         <v>253</v>
       </c>
       <c r="E83" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>247</v>
@@ -10003,28 +10000,28 @@
       <c r="AB83" s="1">
         <v>461</v>
       </c>
-      <c r="AC83" s="22"/>
+      <c r="AC83" s="21"/>
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
-      <c r="AF83" s="25" t="s">
-        <v>651</v>
+      <c r="AF83" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH83" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI83" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI83" s="1" t="s">
+      <c r="AJ83" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ83" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="84" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>439</v>
@@ -10036,10 +10033,10 @@
         <v>257</v>
       </c>
       <c r="E84" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>255</v>
@@ -10077,36 +10074,36 @@
       </c>
       <c r="Y84" s="1"/>
       <c r="Z84" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AA84" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AB84" s="1">
         <v>707</v>
       </c>
-      <c r="AC84" s="22"/>
+      <c r="AC84" s="21"/>
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
-      <c r="AF84" s="25" t="s">
-        <v>643</v>
+      <c r="AF84" s="24" t="s">
+        <v>642</v>
       </c>
       <c r="AG84" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH84" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI84" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI84" s="1" t="s">
+      <c r="AJ84" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ84" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="85" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>439</v>
@@ -10118,10 +10115,10 @@
         <v>221</v>
       </c>
       <c r="E85" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>217</v>
@@ -10163,28 +10160,28 @@
       <c r="AB85" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AC85" s="22"/>
+      <c r="AC85" s="21"/>
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
-      <c r="AF85" s="25" t="s">
-        <v>651</v>
+      <c r="AF85" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG85" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH85" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI85" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI85" s="1" t="s">
+      <c r="AJ85" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ85" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="86" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>439</v>
@@ -10196,10 +10193,10 @@
         <v>259</v>
       </c>
       <c r="E86" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>255</v>
@@ -10241,30 +10238,30 @@
       <c r="AB86" s="1">
         <v>314</v>
       </c>
-      <c r="AC86" s="22">
+      <c r="AC86" s="21">
         <v>300</v>
       </c>
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
-      <c r="AF86" s="25" t="s">
-        <v>651</v>
+      <c r="AF86" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG86" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH86" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI86" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI86" s="1" t="s">
+      <c r="AJ86" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ86" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="87" spans="1:36" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>439</v>
@@ -10276,10 +10273,10 @@
         <v>262</v>
       </c>
       <c r="E87" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F87" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>261</v>
@@ -10321,28 +10318,28 @@
       <c r="AB87" s="1">
         <v>361</v>
       </c>
-      <c r="AC87" s="22"/>
+      <c r="AC87" s="21"/>
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
-      <c r="AF87" s="25" t="s">
-        <v>651</v>
+      <c r="AF87" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG87" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH87" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI87" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI87" s="1" t="s">
+      <c r="AJ87" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ87" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="88" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>439</v>
@@ -10354,10 +10351,10 @@
         <v>264</v>
       </c>
       <c r="E88" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F88" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>261</v>
@@ -10401,30 +10398,30 @@
       <c r="AB88" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AC88" s="22">
+      <c r="AC88" s="21">
         <v>307</v>
       </c>
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
-      <c r="AF88" s="25" t="s">
-        <v>651</v>
+      <c r="AF88" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG88" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH88" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI88" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI88" s="1" t="s">
+      <c r="AJ88" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ88" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="89" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>439</v>
@@ -10436,18 +10433,18 @@
         <v>225</v>
       </c>
       <c r="E89" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F89" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H89" s="19" t="s">
+      <c r="H89" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="I89" s="16"/>
+      <c r="I89" s="15"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -10481,28 +10478,28 @@
       <c r="AB89" s="1">
         <v>402</v>
       </c>
-      <c r="AC89" s="22"/>
+      <c r="AC89" s="21"/>
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
-      <c r="AF89" s="25" t="s">
-        <v>651</v>
+      <c r="AF89" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG89" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH89" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI89" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI89" s="1" t="s">
+      <c r="AJ89" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ89" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="90" spans="1:36" ht="350" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>439</v>
@@ -10514,18 +10511,18 @@
         <v>269</v>
       </c>
       <c r="E90" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="H90" s="16" t="s">
+      <c r="H90" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="I90" s="16"/>
+      <c r="I90" s="15"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
@@ -10559,7 +10556,7 @@
       <c r="AB90" s="1">
         <v>552</v>
       </c>
-      <c r="AC90" s="22">
+      <c r="AC90" s="21">
         <v>580</v>
       </c>
       <c r="AD90" s="1" t="s">
@@ -10568,25 +10565,25 @@
       <c r="AE90" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="AF90" s="25" t="s">
-        <v>651</v>
+      <c r="AF90" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG90" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH90" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI90" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI90" s="1" t="s">
+      <c r="AJ90" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ90" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="91" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>439</v>
@@ -10598,18 +10595,18 @@
         <v>273</v>
       </c>
       <c r="E91" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F91" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="H91" s="16" t="s">
+      <c r="H91" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="I91" s="16"/>
+      <c r="I91" s="15"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
@@ -10643,28 +10640,28 @@
       <c r="AB91" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AC91" s="22"/>
+      <c r="AC91" s="21"/>
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
-      <c r="AF91" s="25" t="s">
-        <v>651</v>
+      <c r="AF91" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG91" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH91" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI91" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI91" s="1" t="s">
+      <c r="AJ91" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ91" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="92" spans="1:36" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>439</v>
@@ -10676,18 +10673,18 @@
         <v>276</v>
       </c>
       <c r="E92" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F92" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="H92" s="16" t="s">
+      <c r="H92" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="I92" s="18"/>
+      <c r="I92" s="17"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -10717,30 +10714,30 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
       <c r="AB92" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="AC92" s="22"/>
+        <v>655</v>
+      </c>
+      <c r="AC92" s="21"/>
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
-      <c r="AF92" s="25" t="s">
-        <v>651</v>
+      <c r="AF92" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG92" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH92" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI92" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI92" s="1" t="s">
+      <c r="AJ92" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ92" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="93" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>439</v>
@@ -10752,20 +10749,20 @@
         <v>277</v>
       </c>
       <c r="E93" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F93" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="H93" s="16" t="s">
+      <c r="H93" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="I93" s="16"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="16"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1" t="s">
@@ -10797,28 +10794,28 @@
       <c r="AB93" s="1">
         <v>567</v>
       </c>
-      <c r="AC93" s="22"/>
+      <c r="AC93" s="21"/>
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
-      <c r="AF93" s="25" t="s">
-        <v>651</v>
+      <c r="AF93" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG93" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH93" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI93" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI93" s="1" t="s">
+      <c r="AJ93" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ93" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="94" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>439</v>
@@ -10830,21 +10827,21 @@
         <v>229</v>
       </c>
       <c r="E94" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H94" s="16" t="s">
+      <c r="H94" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="16"/>
-      <c r="L94" s="16"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1" t="s">
         <v>34</v>
@@ -10875,28 +10872,28 @@
       <c r="AB94" s="1">
         <v>706</v>
       </c>
-      <c r="AC94" s="22"/>
+      <c r="AC94" s="21"/>
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
-      <c r="AF94" s="25" t="s">
-        <v>651</v>
+      <c r="AF94" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG94" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH94" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI94" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI94" s="1" t="s">
+      <c r="AJ94" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ94" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="95" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>439</v>
@@ -10908,21 +10905,21 @@
         <v>233</v>
       </c>
       <c r="E95" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F95" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H95" s="16" t="s">
+      <c r="H95" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="I95" s="16"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="16"/>
-      <c r="L95" s="16"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1" t="s">
         <v>34</v>
@@ -10953,28 +10950,28 @@
       <c r="AB95" s="1">
         <v>550</v>
       </c>
-      <c r="AC95" s="22"/>
+      <c r="AC95" s="21"/>
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
-      <c r="AF95" s="25" t="s">
-        <v>651</v>
+      <c r="AF95" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG95" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH95" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI95" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI95" s="1" t="s">
+      <c r="AJ95" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ95" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="96" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>439</v>
@@ -10986,18 +10983,18 @@
         <v>235</v>
       </c>
       <c r="E96" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F96" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H96" s="16" t="s">
+      <c r="H96" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="I96" s="16"/>
+      <c r="I96" s="15"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -11031,28 +11028,28 @@
       <c r="AB96" s="1">
         <v>511</v>
       </c>
-      <c r="AC96" s="22"/>
+      <c r="AC96" s="21"/>
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
-      <c r="AF96" s="25" t="s">
-        <v>651</v>
+      <c r="AF96" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG96" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH96" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI96" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI96" s="1" t="s">
+      <c r="AJ96" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ96" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="97" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>439</v>
@@ -11064,18 +11061,18 @@
         <v>239</v>
       </c>
       <c r="E97" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F97" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H97" s="16" t="s">
+      <c r="H97" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="I97" s="16"/>
+      <c r="I97" s="15"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
@@ -11109,28 +11106,28 @@
       <c r="AB97" s="1">
         <v>703</v>
       </c>
-      <c r="AC97" s="22"/>
+      <c r="AC97" s="21"/>
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
-      <c r="AF97" s="25" t="s">
-        <v>651</v>
+      <c r="AF97" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG97" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH97" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI97" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI97" s="1" t="s">
+      <c r="AJ97" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ97" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>439</v>
@@ -11142,18 +11139,18 @@
         <v>241</v>
       </c>
       <c r="E98" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F98" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H98" s="16" t="s">
+      <c r="H98" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="I98" s="16"/>
+      <c r="I98" s="15"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -11187,30 +11184,30 @@
       <c r="AB98" s="1">
         <v>363</v>
       </c>
-      <c r="AC98" s="22">
+      <c r="AC98" s="21">
         <v>449</v>
       </c>
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
-      <c r="AF98" s="25" t="s">
-        <v>651</v>
+      <c r="AF98" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG98" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH98" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI98" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI98" s="1" t="s">
+      <c r="AJ98" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ98" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="99" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>439</v>
@@ -11222,10 +11219,10 @@
         <v>161</v>
       </c>
       <c r="E99" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F99" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>156</v>
@@ -11269,30 +11266,30 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
-      <c r="AC99" s="22">
+      <c r="AC99" s="21">
         <v>313</v>
       </c>
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
-      <c r="AF99" s="25" t="s">
-        <v>651</v>
+      <c r="AF99" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG99" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH99" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI99" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI99" s="1" t="s">
+      <c r="AJ99" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ99" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="100" spans="1:36" ht="365" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>441</v>
@@ -11304,10 +11301,10 @@
         <v>325</v>
       </c>
       <c r="E100" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F100" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>321</v>
@@ -11355,28 +11352,28 @@
       <c r="AB100" s="1">
         <v>707</v>
       </c>
-      <c r="AC100" s="22"/>
+      <c r="AC100" s="21"/>
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
-      <c r="AF100" s="25" t="s">
-        <v>651</v>
+      <c r="AF100" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG100" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH100" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI100" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI100" s="1" t="s">
+      <c r="AJ100" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ100" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="101" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>441</v>
@@ -11388,10 +11385,10 @@
         <v>330</v>
       </c>
       <c r="E101" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F101" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>329</v>
@@ -11437,31 +11434,31 @@
       <c r="AB101" s="1">
         <v>709</v>
       </c>
-      <c r="AC101" s="22"/>
+      <c r="AC101" s="21"/>
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
-      <c r="AF101" s="25" t="s">
-        <v>651</v>
+      <c r="AF101" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG101" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH101" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI101" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI101" s="1" t="s">
+      <c r="AJ101" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AJ101" s="1" t="s">
-        <v>647</v>
-      </c>
     </row>
-    <row r="102" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C102" s="1">
         <v>12</v>
@@ -11470,25 +11467,25 @@
         <v>354</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="H102" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="I102" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="I102" s="15" t="s">
+      <c r="J102" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="J102" s="15" t="s">
+      <c r="K102" s="14" t="s">
         <v>601</v>
-      </c>
-      <c r="K102" s="15" t="s">
-        <v>602</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
@@ -11523,7 +11520,7 @@
       <c r="AB102" s="1">
         <v>552</v>
       </c>
-      <c r="AC102" s="22" t="s">
+      <c r="AC102" s="21" t="s">
         <v>356</v>
       </c>
       <c r="AD102" s="1">
@@ -11532,28 +11529,28 @@
       <c r="AE102" s="1">
         <v>301</v>
       </c>
-      <c r="AF102" s="25" t="s">
-        <v>651</v>
+      <c r="AF102" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG102" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH102" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI102" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI102" s="1" t="s">
+      <c r="AJ102" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AJ102" s="1" t="s">
-        <v>647</v>
-      </c>
     </row>
-    <row r="103" spans="1:36" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:36" ht="144" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C103" s="1">
         <v>32</v>
@@ -11562,16 +11559,16 @@
         <v>384</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -11605,33 +11602,33 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
-      <c r="AC103" s="22">
+      <c r="AC103" s="21">
         <v>313</v>
       </c>
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
-      <c r="AF103" s="25" t="s">
-        <v>651</v>
+      <c r="AF103" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG103" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH103" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI103" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI103" s="1" t="s">
+      <c r="AJ103" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AJ103" s="1" t="s">
-        <v>647</v>
-      </c>
     </row>
-    <row r="104" spans="1:36" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:36" ht="144" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C104" s="1">
         <v>13</v>
@@ -11640,28 +11637,28 @@
         <v>360</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="H104" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="I104" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="I104" s="15" t="s">
+      <c r="J104" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="J104" s="15" t="s">
+      <c r="K104" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="K104" s="15" t="s">
+      <c r="L104" s="14" t="s">
         <v>607</v>
-      </c>
-      <c r="L104" s="15" t="s">
-        <v>608</v>
       </c>
       <c r="M104" s="1"/>
       <c r="N104" s="1" t="s">
@@ -11679,7 +11676,7 @@
         <v>23204</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="U104" s="1" t="s">
         <v>1</v>
@@ -11699,35 +11696,35 @@
       <c r="AB104" s="1">
         <v>331</v>
       </c>
-      <c r="AC104" s="22">
+      <c r="AC104" s="21">
         <v>1174</v>
       </c>
       <c r="AD104" s="1">
         <v>1168</v>
       </c>
       <c r="AE104" s="1"/>
-      <c r="AF104" s="25" t="s">
-        <v>651</v>
+      <c r="AF104" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG104" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH104" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI104" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI104" s="1" t="s">
+      <c r="AJ104" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AJ104" s="1" t="s">
-        <v>647</v>
-      </c>
     </row>
-    <row r="105" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C105" s="1">
         <v>13</v>
@@ -11736,19 +11733,19 @@
         <v>361</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="H105" s="15" t="s">
-        <v>604</v>
-      </c>
-      <c r="I105" s="15" t="s">
-        <v>607</v>
+        <v>610</v>
+      </c>
+      <c r="H105" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="I105" s="14" t="s">
+        <v>606</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -11783,31 +11780,31 @@
       <c r="AB105" s="1">
         <v>313</v>
       </c>
-      <c r="AC105" s="22"/>
+      <c r="AC105" s="21"/>
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
-      <c r="AF105" s="25" t="s">
-        <v>651</v>
+      <c r="AF105" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG105" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH105" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI105" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI105" s="1" t="s">
+      <c r="AJ105" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AJ105" s="1" t="s">
-        <v>647</v>
-      </c>
     </row>
-    <row r="106" spans="1:36" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:36" ht="160" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C106" s="1">
         <v>13</v>
@@ -11816,19 +11813,19 @@
         <v>363</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="H106" s="15" t="s">
-        <v>604</v>
-      </c>
-      <c r="I106" s="15" t="s">
-        <v>606</v>
+        <v>610</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="I106" s="14" t="s">
+        <v>605</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -11865,33 +11862,33 @@
       <c r="AB106" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="AC106" s="22"/>
+      <c r="AC106" s="21"/>
       <c r="AD106" s="1" t="s">
         <v>367</v>
       </c>
       <c r="AE106" s="1"/>
-      <c r="AF106" s="25" t="s">
-        <v>651</v>
+      <c r="AF106" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG106" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH106" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI106" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI106" s="1" t="s">
+      <c r="AJ106" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AJ106" s="1" t="s">
-        <v>647</v>
-      </c>
     </row>
-    <row r="107" spans="1:36" ht="365" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:36" ht="365" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C107" s="1">
         <v>13</v>
@@ -11900,22 +11897,22 @@
         <v>368</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="H107" s="15" t="s">
-        <v>604</v>
-      </c>
-      <c r="I107" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="J107" s="16"/>
-      <c r="K107" s="16"/>
+        <v>610</v>
+      </c>
+      <c r="H107" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="I107" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="J107" s="15"/>
+      <c r="K107" s="15"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1" t="s">
@@ -11947,7 +11944,7 @@
       <c r="AB107" s="1">
         <v>552</v>
       </c>
-      <c r="AC107" s="22" t="s">
+      <c r="AC107" s="21" t="s">
         <v>370</v>
       </c>
       <c r="AD107" s="1">
@@ -11956,25 +11953,25 @@
       <c r="AE107" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AF107" s="25" t="s">
-        <v>651</v>
+      <c r="AF107" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG107" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH107" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI107" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI107" s="1" t="s">
+      <c r="AJ107" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ107" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="108" spans="1:36" ht="208" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>439</v>
@@ -11986,19 +11983,19 @@
         <v>267</v>
       </c>
       <c r="E108" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F108" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="H108" s="16" t="s">
+      <c r="H108" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="I108" s="16"/>
-      <c r="J108" s="16"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="15"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
@@ -12029,33 +12026,33 @@
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
-      <c r="AC108" s="22">
+      <c r="AC108" s="21">
         <v>407</v>
       </c>
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
-      <c r="AF108" s="25" t="s">
-        <v>651</v>
+      <c r="AF108" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG108" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH108" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI108" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI108" s="1" t="s">
+      <c r="AJ108" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AJ108" s="1" t="s">
-        <v>647</v>
-      </c>
     </row>
-    <row r="109" spans="1:36" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
@@ -12064,22 +12061,22 @@
         <v>342</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="H109" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="I109" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="I109" s="14" t="s">
-        <v>588</v>
-      </c>
-      <c r="J109" s="16"/>
-      <c r="K109" s="18"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="17"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1" t="s">
@@ -12113,33 +12110,33 @@
       <c r="Z109" s="1"/>
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
-      <c r="AC109" s="22">
+      <c r="AC109" s="21">
         <v>301</v>
       </c>
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
-      <c r="AF109" s="25" t="s">
-        <v>651</v>
+      <c r="AF109" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG109" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH109" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI109" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI109" s="1" t="s">
+      <c r="AJ109" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AJ109" s="1" t="s">
-        <v>647</v>
-      </c>
     </row>
-    <row r="110" spans="1:36" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:36" ht="48" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C110" s="1">
         <v>18</v>
@@ -12148,22 +12145,22 @@
         <v>373</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H110" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I110" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="I110" s="16" t="s">
+      <c r="J110" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -12193,39 +12190,39 @@
       </c>
       <c r="Y110" s="1"/>
       <c r="Z110" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AA110" s="1" t="s">
         <v>375</v>
       </c>
       <c r="AB110" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="AC110" s="22"/>
+        <v>651</v>
+      </c>
+      <c r="AC110" s="21"/>
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
-      <c r="AF110" s="25" t="s">
+      <c r="AF110" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="AG110" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="AG110" s="1" t="s">
+      <c r="AH110" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AH110" s="1" t="s">
+      <c r="AI110" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI110" s="1" t="s">
+      <c r="AJ110" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AJ110" s="1" t="s">
-        <v>647</v>
-      </c>
     </row>
-    <row r="111" spans="1:36" ht="288" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:36" ht="288" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="C111" s="1">
         <v>25</v>
@@ -12234,23 +12231,23 @@
         <v>377</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G111" s="1"/>
-      <c r="H111" s="16" t="s">
+      <c r="H111" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="I111" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="I111" s="16" t="s">
+      <c r="J111" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="J111" s="1" t="s">
+      <c r="K111" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
@@ -12283,35 +12280,35 @@
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
       <c r="AB111" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="AC111" s="22">
+        <v>633</v>
+      </c>
+      <c r="AC111" s="21">
         <v>707</v>
       </c>
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
-      <c r="AF111" s="25" t="s">
-        <v>651</v>
+      <c r="AF111" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG111" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH111" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI111" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI111" s="1" t="s">
+      <c r="AJ111" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AJ111" s="1" t="s">
-        <v>647</v>
-      </c>
     </row>
-    <row r="112" spans="1:36" ht="396" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" ht="396" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>442</v>
+        <v>534</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>660</v>
       </c>
       <c r="C112" s="3">
         <v>29</v>
@@ -12319,25 +12316,25 @@
       <c r="D112" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="E112" s="12" t="s">
-        <v>443</v>
+      <c r="E112" s="11" t="s">
+        <v>442</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G112" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="H112" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="H112" s="16" t="s">
+      <c r="I112" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="I112" s="16" t="s">
+      <c r="J112" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="J112" s="16" t="s">
-        <v>562</v>
-      </c>
-      <c r="K112" s="16"/>
+      <c r="K112" s="15"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
       <c r="N112" s="3" t="s">
@@ -12348,10 +12345,10 @@
       </c>
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
-      <c r="R112" s="20">
+      <c r="R112" s="19">
         <v>24301</v>
       </c>
-      <c r="S112" s="20">
+      <c r="S112" s="19">
         <v>24309</v>
       </c>
       <c r="T112" s="3" t="s">
@@ -12367,36 +12364,36 @@
       </c>
       <c r="Y112" s="3"/>
       <c r="Z112" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AA112" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AB112" s="1">
         <v>707</v>
       </c>
-      <c r="AC112" s="23"/>
+      <c r="AC112" s="22"/>
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
-      <c r="AF112" s="25" t="s">
-        <v>643</v>
+      <c r="AF112" s="24" t="s">
+        <v>642</v>
       </c>
       <c r="AG112" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH112" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI112" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI112" s="1" t="s">
+      <c r="AJ112" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ112" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="113" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>439</v>
@@ -12405,13 +12402,13 @@
         <v>13</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E113" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F113" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>279</v>
@@ -12437,7 +12434,7 @@
       </c>
       <c r="S113" s="1"/>
       <c r="T113" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="U113" s="1" t="s">
         <v>1</v>
@@ -12456,31 +12453,31 @@
         <v>737</v>
       </c>
       <c r="AC113" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
-      <c r="AF113" s="25" t="s">
-        <v>651</v>
+      <c r="AF113" s="24" t="s">
+        <v>650</v>
       </c>
       <c r="AG113" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH113" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AI113" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="AI113" s="1" t="s">
+      <c r="AJ113" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="AJ113" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AJ113" xr:uid="{B84DAE8B-405E-4655-89DF-BEE99C6D5E84}">
-    <filterColumn colId="26">
+    <filterColumn colId="1">
       <filters>
-        <filter val="SUS 677***"/>
+        <filter val="TRÜ, VKK"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/index/corpus_a_index_clean_atu.xlsx
+++ b/data/index/corpus_a_index_clean_atu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenia/Desktop/thesis/magic_tagger/data/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D103415-0D16-3940-AE63-32E434F721EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE9A481-4540-7449-9750-D6BFCD01A118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="1280" windowWidth="29560" windowHeight="18360" xr2:uid="{2FED5107-BDBA-42C2-8B25-B9C3018C5C1C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{2FED5107-BDBA-42C2-8B25-B9C3018C5C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="veneime13102025" sheetId="1" r:id="rId1"/>
@@ -1574,9 +1574,6 @@
     <t>era_vene_7_89_1</t>
   </si>
   <si>
-    <t>era_vene_7_ 95_1</t>
-  </si>
-  <si>
     <t>era_vene_7_125_1</t>
   </si>
   <si>
@@ -1710,9 +1707,6 @@
   </si>
   <si>
     <t>era_vene_16_735_2</t>
-  </si>
-  <si>
-    <t>era_vene_16_ 744_22</t>
   </si>
   <si>
     <t>rkm_vene_1_82_47</t>
@@ -2124,6 +2118,12 @@
   </si>
   <si>
     <t>TRU, VKK</t>
+  </si>
+  <si>
+    <t>era_vene_7_95_1</t>
+  </si>
+  <si>
+    <t>era_vene_16_744_22</t>
   </si>
 </sst>
 </file>
@@ -3260,12 +3260,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84DAE8B-405E-4655-89DF-BEE99C6D5E84}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7:B112"/>
+      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3378,10 +3377,10 @@
         <v>429</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AB1" s="4" t="s">
         <v>430</v>
@@ -3396,22 +3395,22 @@
         <v>433</v>
       </c>
       <c r="AF1" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>636</v>
+      </c>
+      <c r="AI1" s="23" t="s">
         <v>635</v>
       </c>
-      <c r="AG1" s="23" t="s">
-        <v>636</v>
-      </c>
-      <c r="AH1" s="23" t="s">
-        <v>638</v>
-      </c>
-      <c r="AI1" s="23" t="s">
+      <c r="AJ1" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="AJ1" s="23" t="s">
-        <v>639</v>
-      </c>
     </row>
-    <row r="2" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>454</v>
       </c>
@@ -3472,22 +3471,22 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>461</v>
       </c>
@@ -3546,22 +3545,22 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" ht="144" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>472</v>
       </c>
@@ -3622,24 +3621,24 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>439</v>
@@ -3700,24 +3699,24 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" ht="192" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>441</v>
@@ -3778,27 +3777,27 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="350" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C7" s="1">
         <v>52</v>
@@ -3813,13 +3812,13 @@
         <v>445</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>611</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>613</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -3856,27 +3855,27 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C8" s="1">
         <v>38</v>
@@ -3891,13 +3890,13 @@
         <v>445</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>568</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -3934,27 +3933,27 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C9" s="1">
         <v>41</v>
@@ -3969,19 +3968,19 @@
         <v>445</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>573</v>
-      </c>
       <c r="K9" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -4016,27 +4015,27 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="176" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C10" s="1">
         <v>32</v>
@@ -4051,10 +4050,10 @@
         <v>445</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -4092,22 +4091,22 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" ht="112" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>450</v>
       </c>
@@ -4170,22 +4169,22 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>458</v>
       </c>
@@ -4246,22 +4245,22 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>477</v>
       </c>
@@ -4328,24 +4327,24 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" ht="176" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>441</v>
@@ -4410,27 +4409,27 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C15" s="1">
         <v>13</v>
@@ -4445,22 +4444,22 @@
         <v>445</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H15" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="K15" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="L15" s="14" t="s">
         <v>605</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>607</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
@@ -4496,27 +4495,27 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="320" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -4531,13 +4530,13 @@
         <v>445</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -4576,22 +4575,22 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>451</v>
       </c>
@@ -4654,22 +4653,22 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH17" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI17" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ17" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="18" spans="1:36" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>452</v>
       </c>
@@ -4736,22 +4735,22 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH18" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI18" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ18" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="19" spans="1:36" ht="256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" ht="256" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>453</v>
       </c>
@@ -4814,22 +4813,22 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH19" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI19" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ19" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="20" spans="1:36" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>455</v>
       </c>
@@ -4892,22 +4891,22 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH20" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI20" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ20" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="21" spans="1:36" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" ht="144" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>456</v>
       </c>
@@ -4970,22 +4969,22 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH21" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI21" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ21" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="22" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" ht="80" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>457</v>
       </c>
@@ -5048,22 +5047,22 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH22" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI22" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ22" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="23" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>459</v>
       </c>
@@ -5132,22 +5131,22 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH23" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI23" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ23" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="24" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>460</v>
       </c>
@@ -5214,22 +5213,22 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH24" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI24" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI24" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ24" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="25" spans="1:36" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" ht="192" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>473</v>
       </c>
@@ -5286,13 +5285,13 @@
         <v>117</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AA25" s="21" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AC25" s="21">
         <v>677</v>
@@ -5300,22 +5299,22 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH25" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AG25" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH25" s="1" t="s">
+      <c r="AI25" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI25" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ25" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="26" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>474</v>
       </c>
@@ -5378,22 +5377,22 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH26" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI26" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ26" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="27" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>475</v>
       </c>
@@ -5458,24 +5457,24 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH27" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI27" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ27" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI27" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ27" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="28" spans="1:36" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" ht="192" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>479</v>
+        <v>659</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>439</v>
@@ -5538,24 +5537,24 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH28" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI28" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ28" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI28" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ28" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="29" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" ht="96" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>439</v>
@@ -5616,24 +5615,24 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH29" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI29" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ29" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI29" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ29" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="30" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" ht="128" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>439</v>
@@ -5694,24 +5693,24 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH30" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI30" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ30" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI30" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ30" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="31" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" ht="80" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>439</v>
@@ -5772,24 +5771,24 @@
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH31" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI31" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ31" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="32" spans="1:36" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" ht="176" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>439</v>
@@ -5850,24 +5849,24 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH32" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI32" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ32" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI32" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ32" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="33" spans="1:36" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" ht="144" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>439</v>
@@ -5930,24 +5929,24 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG33" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH33" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI33" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ33" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI33" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ33" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="34" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>439</v>
@@ -6000,36 +5999,36 @@
       </c>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AC34" s="21"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="AG34" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH34" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AG34" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH34" s="1" t="s">
+      <c r="AI34" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ34" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI34" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ34" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="35" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" ht="128" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>439</v>
@@ -6084,10 +6083,10 @@
       </c>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AB35" s="1" t="s">
         <v>252</v>
@@ -6096,24 +6095,24 @@
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="AG35" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AH35" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AG35" s="1" t="s">
+      <c r="AI35" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="AH35" s="1" t="s">
+      <c r="AJ35" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI35" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ35" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="36" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" ht="112" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>525</v>
+        <v>660</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>439</v>
@@ -6174,24 +6173,24 @@
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG36" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH36" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI36" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ36" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI36" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ36" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="37" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" ht="128" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>439</v>
@@ -6254,24 +6253,24 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG37" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH37" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI37" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ37" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI37" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ37" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="38" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" ht="128" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>439</v>
@@ -6334,24 +6333,24 @@
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
       <c r="AF38" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH38" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI38" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ38" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI38" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ38" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="39" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" ht="112" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>439</v>
@@ -6412,24 +6411,24 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
       <c r="AF39" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG39" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH39" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI39" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ39" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI39" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ39" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="40" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" ht="128" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>441</v>
@@ -6484,10 +6483,10 @@
       </c>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AB40" s="1">
         <v>328</v>
@@ -6496,27 +6495,27 @@
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AF40" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="AG40" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH40" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AG40" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH40" s="1" t="s">
+      <c r="AI40" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ40" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="AI40" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ40" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="41" spans="1:36" ht="208" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C41" s="1">
         <v>5</v>
@@ -6531,13 +6530,13 @@
         <v>445</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -6576,27 +6575,27 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
       <c r="AF41" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG41" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH41" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI41" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ41" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="AI41" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ41" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="42" spans="1:36" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C42" s="1">
         <v>5</v>
@@ -6611,13 +6610,13 @@
         <v>445</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -6648,39 +6647,39 @@
       </c>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AA42" s="1">
         <v>480</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AC42" s="21"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
       <c r="AF42" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="AG42" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH42" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AG42" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH42" s="1" t="s">
+      <c r="AI42" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ42" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="AI42" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ42" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="43" spans="1:36" ht="128" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C43" s="1">
         <v>9</v>
@@ -6695,13 +6694,13 @@
         <v>445</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -6744,27 +6743,27 @@
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
       <c r="AF43" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG43" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH43" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI43" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ43" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="AI43" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ43" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="44" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C44" s="1">
         <v>62</v>
@@ -6779,19 +6778,19 @@
         <v>445</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H44" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="J44" s="14" t="s">
         <v>614</v>
       </c>
-      <c r="I44" s="14" t="s">
+      <c r="K44" s="14" t="s">
         <v>615</v>
-      </c>
-      <c r="J44" s="14" t="s">
-        <v>616</v>
-      </c>
-      <c r="K44" s="14" t="s">
-        <v>617</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -6828,27 +6827,27 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
       <c r="AF44" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG44" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH44" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI44" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ44" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="AI44" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ44" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="45" spans="1:36" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C45" s="1">
         <v>48</v>
@@ -6863,13 +6862,13 @@
         <v>445</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="I45" s="14" t="s">
         <v>579</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>581</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -6900,39 +6899,39 @@
       </c>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AA45" s="1">
         <v>480</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AC45" s="21"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
       <c r="AF45" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="AG45" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH45" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AG45" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH45" s="1" t="s">
+      <c r="AI45" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ45" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="AI45" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ45" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="46" spans="1:36" ht="112" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C46" s="1">
         <v>41</v>
@@ -6947,19 +6946,19 @@
         <v>445</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I46" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="J46" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="I46" s="16" t="s">
+      <c r="K46" s="14" t="s">
         <v>571</v>
-      </c>
-      <c r="J46" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="K46" s="14" t="s">
-        <v>573</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -6996,27 +6995,27 @@
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
       <c r="AF46" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG46" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH46" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI46" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ46" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="AI46" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ46" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="47" spans="1:36" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C47" s="1">
         <v>43</v>
@@ -7031,19 +7030,19 @@
         <v>445</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="I47" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="J47" s="14" t="s">
         <v>575</v>
       </c>
-      <c r="I47" s="14" t="s">
+      <c r="K47" s="14" t="s">
         <v>576</v>
-      </c>
-      <c r="J47" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="K47" s="14" t="s">
-        <v>578</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -7082,27 +7081,27 @@
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
       <c r="AF47" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG47" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH47" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI47" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ47" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="AI47" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ47" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="48" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C48" s="1">
         <v>32</v>
@@ -7117,10 +7116,10 @@
         <v>445</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -7160,27 +7159,27 @@
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG48" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH48" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI48" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ48" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="AI48" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ48" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="49" spans="1:36" ht="96" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C49" s="1">
         <v>32</v>
@@ -7195,10 +7194,10 @@
         <v>445</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -7238,22 +7237,22 @@
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH49" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI49" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ49" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI49" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ49" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="50" spans="1:36" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>446</v>
       </c>
@@ -7318,22 +7317,22 @@
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
       <c r="AF50" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH50" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI50" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ50" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI50" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ50" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="51" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>447</v>
       </c>
@@ -7398,22 +7397,22 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG51" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH51" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI51" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ51" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI51" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ51" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="52" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" ht="80" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>448</v>
       </c>
@@ -7478,22 +7477,22 @@
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
       <c r="AF52" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG52" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH52" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI52" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ52" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI52" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ52" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="53" spans="1:36" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" ht="160" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>449</v>
       </c>
@@ -7552,10 +7551,10 @@
       </c>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AB53" s="1">
         <v>410</v>
@@ -7564,22 +7563,22 @@
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="AG53" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH53" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AG53" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH53" s="1" t="s">
+      <c r="AI53" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ53" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI53" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ53" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="54" spans="1:36" ht="288" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" ht="288" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>464</v>
       </c>
@@ -7644,22 +7643,22 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG54" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH54" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI54" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ54" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI54" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ54" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="55" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>463</v>
       </c>
@@ -7702,7 +7701,7 @@
       </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>1</v>
@@ -7724,22 +7723,22 @@
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
       <c r="AF55" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG55" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH55" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI55" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ55" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI55" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ55" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="56" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" ht="112" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>466</v>
       </c>
@@ -7802,22 +7801,22 @@
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
       <c r="AF56" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG56" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH56" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI56" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ56" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI56" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ56" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="57" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" ht="128" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>465</v>
       </c>
@@ -7880,22 +7879,22 @@
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
       <c r="AF57" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG57" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH57" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI57" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ57" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI57" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ57" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="58" spans="1:36" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" ht="160" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>462</v>
       </c>
@@ -7960,22 +7959,22 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
       <c r="AF58" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG58" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH58" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI58" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ58" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI58" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ58" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="59" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>467</v>
       </c>
@@ -8038,22 +8037,22 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
       <c r="AF59" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG59" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH59" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI59" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ59" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI59" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ59" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="60" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>468</v>
       </c>
@@ -8116,22 +8115,22 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
       <c r="AF60" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG60" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH60" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI60" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ60" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI60" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ60" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="61" spans="1:36" ht="288" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" ht="288" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>469</v>
       </c>
@@ -8194,22 +8193,22 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG61" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH61" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI61" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ61" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI61" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ61" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="62" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>470</v>
       </c>
@@ -8272,22 +8271,22 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH62" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI62" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ62" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI62" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ62" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="63" spans="1:36" ht="256" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" ht="256" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>471</v>
       </c>
@@ -8342,10 +8341,10 @@
       </c>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AA63" s="21" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AB63" s="1">
         <v>307</v>
@@ -8356,22 +8355,22 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
       <c r="AF63" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="AG63" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH63" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AG63" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH63" s="1" t="s">
+      <c r="AI63" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ63" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI63" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ63" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="64" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" ht="96" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>478</v>
       </c>
@@ -8426,10 +8425,10 @@
       </c>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AA64" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AB64" s="1">
         <v>480</v>
@@ -8438,22 +8437,22 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
       <c r="AF64" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="AG64" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH64" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AG64" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH64" s="1" t="s">
+      <c r="AI64" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ64" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI64" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ64" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="65" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" ht="128" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>476</v>
       </c>
@@ -8516,24 +8515,24 @@
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
       <c r="AF65" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG65" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH65" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI65" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ65" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI65" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ65" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="66" spans="1:36" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36" ht="160" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>439</v>
@@ -8598,24 +8597,24 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
       <c r="AF66" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH66" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI66" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ66" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI66" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ66" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="67" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36" ht="112" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>439</v>
@@ -8676,24 +8675,24 @@
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
       <c r="AF67" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG67" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH67" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI67" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ67" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI67" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ67" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="68" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36" ht="96" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>439</v>
@@ -8752,10 +8751,10 @@
       </c>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AB68" s="1" t="s">
         <v>197</v>
@@ -8764,24 +8763,24 @@
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
       <c r="AF68" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="AG68" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH68" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AG68" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH68" s="1" t="s">
+      <c r="AI68" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ68" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI68" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ68" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="69" spans="1:36" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36" ht="192" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>439</v>
@@ -8842,24 +8841,24 @@
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
       <c r="AF69" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG69" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH69" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI69" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ69" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI69" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ69" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="70" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>439</v>
@@ -8926,24 +8925,24 @@
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
       <c r="AF70" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG70" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH70" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI70" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ70" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI70" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ70" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="71" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>439</v>
@@ -9010,24 +9009,24 @@
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
       <c r="AF71" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG71" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH71" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI71" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ71" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI71" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ71" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="72" spans="1:36" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>439</v>
@@ -9090,24 +9089,24 @@
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
       <c r="AF72" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG72" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH72" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI72" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ72" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI72" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ72" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="73" spans="1:36" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>439</v>
@@ -9170,24 +9169,24 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
       <c r="AF73" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG73" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH73" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI73" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ73" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI73" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ73" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="74" spans="1:36" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>439</v>
@@ -9242,36 +9241,36 @@
       </c>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AA74" s="1">
         <v>480</v>
       </c>
       <c r="AB74" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AC74" s="21"/>
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
       <c r="AF74" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="AG74" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH74" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AG74" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH74" s="1" t="s">
+      <c r="AI74" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ74" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI74" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ74" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="75" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>439</v>
@@ -9340,24 +9339,24 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
       <c r="AF75" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG75" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH75" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI75" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ75" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI75" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ75" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="76" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>439</v>
@@ -9420,24 +9419,24 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
       <c r="AF76" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG76" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH76" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI76" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ76" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI76" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ76" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="77" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>439</v>
@@ -9500,24 +9499,24 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
       <c r="AF77" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG77" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH77" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI77" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ77" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI77" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ77" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="78" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:36" ht="96" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>439</v>
@@ -9584,24 +9583,24 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
       <c r="AF78" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG78" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH78" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI78" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ78" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI78" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ78" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="79" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>439</v>
@@ -9660,36 +9659,36 @@
       </c>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AA79" s="1">
         <v>480</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AC79" s="21"/>
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
       <c r="AF79" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="AG79" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH79" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AG79" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH79" s="1" t="s">
+      <c r="AI79" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ79" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI79" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ79" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="80" spans="1:36" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:36" ht="192" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>439</v>
@@ -9742,10 +9741,10 @@
       </c>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AA80" s="21" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AB80" s="1">
         <v>307</v>
@@ -9756,24 +9755,24 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
       <c r="AF80" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="AG80" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH80" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AG80" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH80" s="1" t="s">
+      <c r="AI80" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ80" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI80" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ80" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="81" spans="1:36" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:36" ht="208" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>439</v>
@@ -9828,10 +9827,10 @@
         <v>251</v>
       </c>
       <c r="Z81" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AA81" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AB81" s="1" t="s">
         <v>252</v>
@@ -9844,24 +9843,24 @@
       </c>
       <c r="AE81" s="1"/>
       <c r="AF81" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="AG81" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH81" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AG81" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH81" s="1" t="s">
+      <c r="AI81" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ81" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI81" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ81" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="82" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:36" ht="96" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>439</v>
@@ -9914,36 +9913,36 @@
       </c>
       <c r="Y82" s="1"/>
       <c r="Z82" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AA82" s="1">
         <v>480</v>
       </c>
       <c r="AB82" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AC82" s="21"/>
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
       <c r="AF82" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="AG82" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH82" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AG82" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH82" s="1" t="s">
+      <c r="AI82" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ82" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI82" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ82" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="83" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>439</v>
@@ -10004,24 +10003,24 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
       <c r="AF83" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH83" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI83" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ83" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI83" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ83" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="84" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>439</v>
@@ -10074,10 +10073,10 @@
       </c>
       <c r="Y84" s="1"/>
       <c r="Z84" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AA84" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AB84" s="1">
         <v>707</v>
@@ -10086,24 +10085,24 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
       <c r="AF84" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="AG84" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH84" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AG84" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH84" s="1" t="s">
+      <c r="AI84" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ84" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI84" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ84" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="85" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:36" ht="96" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>439</v>
@@ -10164,24 +10163,24 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
       <c r="AF85" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG85" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH85" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI85" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ85" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI85" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ85" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="86" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>439</v>
@@ -10244,24 +10243,24 @@
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
       <c r="AF86" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG86" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH86" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI86" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ86" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI86" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ86" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="87" spans="1:36" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:36" ht="160" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>439</v>
@@ -10322,24 +10321,24 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
       <c r="AF87" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG87" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH87" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI87" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ87" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI87" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ87" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="88" spans="1:36" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>439</v>
@@ -10404,24 +10403,24 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
       <c r="AF88" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG88" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH88" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI88" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ88" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI88" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ88" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="89" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>439</v>
@@ -10482,24 +10481,24 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
       <c r="AF89" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG89" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH89" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI89" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ89" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI89" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ89" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="90" spans="1:36" ht="350" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:36" ht="350" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>439</v>
@@ -10566,24 +10565,24 @@
         <v>272</v>
       </c>
       <c r="AF90" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG90" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH90" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI90" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ90" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI90" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ90" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="91" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:36" ht="128" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>439</v>
@@ -10644,24 +10643,24 @@
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
       <c r="AF91" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG91" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH91" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI91" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ91" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI91" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ91" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="92" spans="1:36" ht="129" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" ht="129" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>439</v>
@@ -10714,30 +10713,30 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
       <c r="AB92" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AC92" s="21"/>
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
       <c r="AF92" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG92" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH92" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI92" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ92" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI92" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ92" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="93" spans="1:36" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:36" ht="128" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>439</v>
@@ -10798,24 +10797,24 @@
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
       <c r="AF93" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG93" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH93" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI93" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ93" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI93" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ93" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="94" spans="1:36" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:36" ht="96" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>439</v>
@@ -10876,24 +10875,24 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
       <c r="AF94" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG94" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH94" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI94" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ94" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI94" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ94" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="95" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>439</v>
@@ -10954,24 +10953,24 @@
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
       <c r="AF95" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG95" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH95" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI95" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ95" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI95" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ95" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="96" spans="1:36" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>439</v>
@@ -11032,24 +11031,24 @@
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
       <c r="AF96" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG96" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH96" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI96" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ96" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI96" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ96" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="97" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:36" ht="80" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>439</v>
@@ -11110,24 +11109,24 @@
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
       <c r="AF97" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG97" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH97" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI97" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ97" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI97" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ97" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="98" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:36" ht="80" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>439</v>
@@ -11190,24 +11189,24 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
       <c r="AF98" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG98" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH98" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI98" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ98" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI98" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ98" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="99" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:36" ht="80" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>439</v>
@@ -11272,24 +11271,24 @@
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
       <c r="AF99" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG99" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH99" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI99" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ99" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI99" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ99" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="100" spans="1:36" ht="365" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:36" ht="365" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>441</v>
@@ -11356,24 +11355,24 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
       <c r="AF100" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG100" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH100" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI100" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ100" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI100" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ100" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="101" spans="1:36" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:36" ht="80" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>441</v>
@@ -11438,27 +11437,27 @@
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
       <c r="AF101" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG101" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH101" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI101" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ101" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="AI101" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ101" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="102" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C102" s="1">
         <v>12</v>
@@ -11473,19 +11472,19 @@
         <v>445</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H102" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="I102" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="J102" s="14" t="s">
         <v>598</v>
       </c>
-      <c r="I102" s="14" t="s">
+      <c r="K102" s="14" t="s">
         <v>599</v>
-      </c>
-      <c r="J102" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="K102" s="14" t="s">
-        <v>601</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
@@ -11530,27 +11529,27 @@
         <v>301</v>
       </c>
       <c r="AF102" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG102" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH102" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI102" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ102" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="AI102" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ102" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="103" spans="1:36" ht="144" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C103" s="1">
         <v>32</v>
@@ -11565,10 +11564,10 @@
         <v>445</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -11608,27 +11607,27 @@
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
       <c r="AF103" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG103" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH103" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI103" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ103" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="AI103" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ103" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="104" spans="1:36" ht="144" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C104" s="1">
         <v>13</v>
@@ -11643,22 +11642,22 @@
         <v>445</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H104" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="I104" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="J104" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="I104" s="14" t="s">
+      <c r="K104" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="J104" s="14" t="s">
+      <c r="L104" s="14" t="s">
         <v>605</v>
-      </c>
-      <c r="K104" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="L104" s="14" t="s">
-        <v>607</v>
       </c>
       <c r="M104" s="1"/>
       <c r="N104" s="1" t="s">
@@ -11676,7 +11675,7 @@
         <v>23204</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="U104" s="1" t="s">
         <v>1</v>
@@ -11704,27 +11703,27 @@
       </c>
       <c r="AE104" s="1"/>
       <c r="AF104" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG104" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH104" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI104" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ104" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="AI104" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ104" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="105" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C105" s="1">
         <v>13</v>
@@ -11739,13 +11738,13 @@
         <v>445</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H105" s="14" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I105" s="14" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -11784,27 +11783,27 @@
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
       <c r="AF105" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG105" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH105" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI105" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ105" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="AI105" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ105" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="106" spans="1:36" ht="160" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C106" s="1">
         <v>13</v>
@@ -11819,13 +11818,13 @@
         <v>445</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H106" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="I106" s="14" t="s">
         <v>603</v>
-      </c>
-      <c r="I106" s="14" t="s">
-        <v>605</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -11868,27 +11867,27 @@
       </c>
       <c r="AE106" s="1"/>
       <c r="AF106" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG106" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH106" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI106" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ106" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="AI106" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ106" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="107" spans="1:36" ht="365" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C107" s="1">
         <v>13</v>
@@ -11903,13 +11902,13 @@
         <v>445</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H107" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="I107" s="13" t="s">
         <v>603</v>
-      </c>
-      <c r="I107" s="13" t="s">
-        <v>605</v>
       </c>
       <c r="J107" s="15"/>
       <c r="K107" s="15"/>
@@ -11954,24 +11953,24 @@
         <v>356</v>
       </c>
       <c r="AF107" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG107" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH107" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI107" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ107" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI107" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ107" s="1" t="s">
-        <v>646</v>
-      </c>
     </row>
-    <row r="108" spans="1:36" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:36" ht="208" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>439</v>
@@ -12032,27 +12031,27 @@
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
       <c r="AF108" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG108" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH108" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI108" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ108" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="AI108" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ108" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="109" spans="1:36" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
@@ -12067,13 +12066,13 @@
         <v>445</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H109" s="14" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J109" s="15"/>
       <c r="K109" s="17"/>
@@ -12116,27 +12115,27 @@
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
       <c r="AF109" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG109" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH109" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI109" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ109" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="AI109" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ109" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="110" spans="1:36" ht="48" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C110" s="1">
         <v>18</v>
@@ -12151,16 +12150,16 @@
         <v>445</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H110" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="I110" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="J110" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="I110" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -12190,39 +12189,39 @@
       </c>
       <c r="Y110" s="1"/>
       <c r="Z110" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AA110" s="1" t="s">
         <v>375</v>
       </c>
       <c r="AB110" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AC110" s="21"/>
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
       <c r="AF110" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="AG110" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AH110" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AG110" s="1" t="s">
+      <c r="AI110" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="AH110" s="1" t="s">
+      <c r="AJ110" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="AI110" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ110" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="111" spans="1:36" ht="288" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C111" s="1">
         <v>25</v>
@@ -12238,16 +12237,16 @@
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="I111" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="J111" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="I111" s="15" t="s">
+      <c r="K111" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>557</v>
       </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
@@ -12280,7 +12279,7 @@
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
       <c r="AB111" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="AC111" s="21">
         <v>707</v>
@@ -12288,27 +12287,27 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
       <c r="AF111" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG111" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH111" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI111" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ111" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="AI111" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ111" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="112" spans="1:36" ht="396" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C112" s="3">
         <v>29</v>
@@ -12323,16 +12322,16 @@
         <v>445</v>
       </c>
       <c r="G112" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="H112" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="I112" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="H112" s="15" t="s">
+      <c r="J112" s="15" t="s">
         <v>559</v>
-      </c>
-      <c r="I112" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="J112" s="15" t="s">
-        <v>561</v>
       </c>
       <c r="K112" s="15"/>
       <c r="L112" s="3"/>
@@ -12364,10 +12363,10 @@
       </c>
       <c r="Y112" s="3"/>
       <c r="Z112" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AA112" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AB112" s="1">
         <v>707</v>
@@ -12376,24 +12375,24 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
       <c r="AF112" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="AG112" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH112" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AG112" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH112" s="1" t="s">
+      <c r="AI112" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ112" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AI112" s="1" t="s">
+    </row>
+    <row r="113" spans="1:36" ht="112" x14ac:dyDescent="0.2">
+      <c r="A113" s="7" t="s">
         <v>645</v>
-      </c>
-      <c r="AJ112" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="113" spans="1:36" ht="112" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="7" t="s">
-        <v>647</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>439</v>
@@ -12402,7 +12401,7 @@
         <v>13</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>443</v>
@@ -12434,7 +12433,7 @@
       </c>
       <c r="S113" s="1"/>
       <c r="T113" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="U113" s="1" t="s">
         <v>1</v>
@@ -12453,34 +12452,28 @@
         <v>737</v>
       </c>
       <c r="AC113" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
       <c r="AF113" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG113" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AH113" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI113" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AJ113" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="AI113" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ113" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ113" xr:uid="{B84DAE8B-405E-4655-89DF-BEE99C6D5E84}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="TRÜ, VKK"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AJ113" xr:uid="{B84DAE8B-405E-4655-89DF-BEE99C6D5E84}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
